--- a/Data/1month/windata2h.xlsx
+++ b/Data/1month/windata2h.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronmao/Documents/Programming/APEnviro-LTP/Data/1month/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19942D18-C040-6E45-9EF5-384247BF35D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AF2AE916-DF3C-BC4B-B6CE-32DC7ED6A3C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="6960" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="11400" yWindow="8040" windowWidth="26840" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="windata2h" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Time</t>
   </si>
@@ -56,6 +64,9 @@
   </si>
   <si>
     <t>RH (percent)</t>
+  </si>
+  <si>
+    <t>Power (kw)</t>
   </si>
 </sst>
 </file>
@@ -897,13 +908,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L373"/>
+  <dimension ref="A1:N373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -940,8 +953,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43577</v>
       </c>
@@ -978,8 +994,12 @@
       <c r="L2">
         <v>78.400000000000006</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <f>0.5*0.0765*0.000133*0.35*30429.57*(G2*2.24)^3</f>
+        <v>6.3224378516558169E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43577.083333333336</v>
       </c>
@@ -1016,8 +1036,12 @@
       <c r="L3">
         <v>78.900000000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="0">0.5*0.0765*0.000133*0.35*30429.57*(G3*2.24)^3</f>
+        <v>0.36093487998110341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43577.166666666664</v>
       </c>
@@ -1054,8 +1078,12 @@
       <c r="L4">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0.68500069652822293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43577.25</v>
       </c>
@@ -1092,8 +1120,12 @@
       <c r="L5">
         <v>78.599999999999994</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>1.5318199463100415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43577.333333333336</v>
       </c>
@@ -1130,8 +1162,12 @@
       <c r="L6">
         <v>68.099999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1.4326691792768453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43577.416666666664</v>
       </c>
@@ -1168,8 +1204,12 @@
       <c r="L7">
         <v>58.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>5.88477422690036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43577.5</v>
       </c>
@@ -1206,8 +1246,12 @@
       <c r="L8">
         <v>51.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>7.60422484643916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43577.583333333336</v>
       </c>
@@ -1244,8 +1288,12 @@
       <c r="L9">
         <v>53.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>2.8874790398488273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43577.666666666664</v>
       </c>
@@ -1282,8 +1330,12 @@
       <c r="L10">
         <v>58.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.17507446255643172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43577.75</v>
       </c>
@@ -1320,8 +1372,12 @@
       <c r="L11">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>1.8141620453914684E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43577.833333333336</v>
       </c>
@@ -1358,8 +1414,12 @@
       <c r="L12">
         <v>77.400000000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1.8141620453914684E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43577.916666666664</v>
       </c>
@@ -1396,8 +1456,12 @@
       <c r="L13">
         <v>79.900000000000006</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.40100404463643996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43578</v>
       </c>
@@ -1434,8 +1498,12 @@
       <c r="L14">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.5387715992720844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43578.083333333336</v>
       </c>
@@ -1472,8 +1540,12 @@
       <c r="L15">
         <v>76.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.92615679258324668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43578.166666666664</v>
       </c>
@@ -1510,8 +1582,12 @@
       <c r="L16">
         <v>70.900000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>2.0966301998397516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43578.25</v>
       </c>
@@ -1548,8 +1624,12 @@
       <c r="L17">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>2.5413742388484297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43578.333333333336</v>
       </c>
@@ -1586,8 +1666,12 @@
       <c r="L18">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>3.0449441157225081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43578.416666666664</v>
       </c>
@@ -1624,8 +1708,12 @@
       <c r="L19">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>2.0552505465396287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43578.5</v>
       </c>
@@ -1662,8 +1750,12 @@
       <c r="L20">
         <v>29.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>2.0552505465396287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43578.583333333336</v>
       </c>
@@ -1700,8 +1792,12 @@
       <c r="L21">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>1.3367958517818648E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43578.666666666664</v>
       </c>
@@ -1738,8 +1834,12 @@
       <c r="L22">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>0.42930012519807281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43578.75</v>
       </c>
@@ -1776,8 +1876,12 @@
       <c r="L23">
         <v>46.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>0.72528482516664994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43578.833333333336</v>
       </c>
@@ -1814,8 +1918,12 @@
       <c r="L24">
         <v>56.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0.23689700795946866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43578.916666666664</v>
       </c>
@@ -1852,8 +1960,12 @@
       <c r="L25">
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>2.1884307819553965E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43579</v>
       </c>
@@ -1890,8 +2002,12 @@
       <c r="L26">
         <v>71.400000000000006</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>4.8416831171474439E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43579.083333333336</v>
       </c>
@@ -1928,8 +2044,12 @@
       <c r="L27">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>7.6120390612578845E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43579.166666666664</v>
       </c>
@@ -1966,8 +2086,12 @@
       <c r="L28">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>0.28898466884784413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43579.25</v>
       </c>
@@ -2004,8 +2128,12 @@
       <c r="L29">
         <v>73.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0.40100404463643996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43579.333333333336</v>
       </c>
@@ -2042,8 +2170,12 @@
       <c r="L30">
         <v>53.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>2.9918358326367986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43579.416666666664</v>
       </c>
@@ -2080,8 +2212,12 @@
       <c r="L31">
         <v>38.299999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>7.4092543406659734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43579.5</v>
       </c>
@@ -2118,8 +2254,12 @@
       <c r="L32">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>7.3130314683373019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43579.583333333336</v>
       </c>
@@ -2156,8 +2296,12 @@
       <c r="L33">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>5.8022786013331995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43579.666666666664</v>
       </c>
@@ -2194,8 +2338,12 @@
       <c r="L34">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>5.1698923187963874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43579.75</v>
       </c>
@@ -2232,8 +2380,12 @@
       <c r="L35">
         <v>42.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>1.4326691792768453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43579.833333333336</v>
       </c>
@@ -2270,8 +2422,12 @@
       <c r="L36">
         <v>53.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>2.7855775863804553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43579.916666666664</v>
       </c>
@@ -2308,8 +2464,12 @@
       <c r="L37">
         <v>60.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>1.8951760636757493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43580</v>
       </c>
@@ -2346,8 +2506,12 @@
       <c r="L38">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>1.4326691792768453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43580.083333333336</v>
       </c>
@@ -2384,8 +2548,12 @@
       <c r="L39">
         <v>62.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>0.57315122145147446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43580.166666666664</v>
       </c>
@@ -2422,8 +2590,12 @@
       <c r="L40">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>1.2181552199362242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43580.25</v>
       </c>
@@ -2460,8 +2632,12 @@
       <c r="L41">
         <v>61.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>1.4326691792768453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43580.333333333336</v>
       </c>
@@ -2498,8 +2674,12 @@
       <c r="L42">
         <v>45.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>1.7807342325762985</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43580.416666666664</v>
       </c>
@@ -2536,8 +2716,12 @@
       <c r="L43">
         <v>34.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>1.6709948147273306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43580.5</v>
       </c>
@@ -2574,8 +2758,12 @@
       <c r="L44">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>1.707058219947071</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43580.583333333336</v>
       </c>
@@ -2612,8 +2800,12 @@
       <c r="L45">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>1.30725444162981</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43580.666666666664</v>
       </c>
@@ -2650,8 +2842,12 @@
       <c r="L46">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>0.36093487998110341</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43580.75</v>
       </c>
@@ -2688,8 +2884,12 @@
       <c r="L47">
         <v>39.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>1.2473897126733284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43580.833333333336</v>
       </c>
@@ -2726,8 +2926,12 @@
       <c r="L48">
         <v>49.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>0.38733464937179551</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43580.916666666664</v>
       </c>
@@ -2764,8 +2968,12 @@
       <c r="L49">
         <v>56.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>0.13153603497853622</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43581</v>
       </c>
@@ -2802,8 +3010,12 @@
       <c r="L50">
         <v>60.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>0.13153603497853622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43581.083333333336</v>
       </c>
@@ -2840,8 +3052,12 @@
       <c r="L51">
         <v>65.400000000000006</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>0.33576278025021083</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43581.166666666664</v>
       </c>
@@ -2878,8 +3094,12 @@
       <c r="L52">
         <v>69.099999999999994</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>0.13153603497853622</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43581.25</v>
       </c>
@@ -2916,8 +3136,12 @@
       <c r="L53">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>0.66543044858329159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43581.333333333336</v>
       </c>
@@ -2954,8 +3178,12 @@
       <c r="L54">
         <v>73.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>1.6709948147273306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43581.416666666664</v>
       </c>
@@ -2992,8 +3220,12 @@
       <c r="L55">
         <v>70.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>1.000545901031733</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43581.5</v>
       </c>
@@ -3030,8 +3262,12 @@
       <c r="L56">
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>1.2770882353116078</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43581.583333333336</v>
       </c>
@@ -3068,8 +3304,12 @@
       <c r="L57">
         <v>75.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>1.4982776484273894</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43581.666666666664</v>
       </c>
@@ -3106,8 +3346,12 @@
       <c r="L58">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>1.2770882353116078</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43581.75</v>
       </c>
@@ -3144,8 +3388,12 @@
       <c r="L59">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>0.70495093746309279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43581.833333333336</v>
       </c>
@@ -3182,8 +3430,12 @@
       <c r="L60">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>0.50579502813246535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43581.916666666664</v>
       </c>
@@ -3220,8 +3472,12 @@
       <c r="L61">
         <v>80</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>0.23689700795946866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43582</v>
       </c>
@@ -3258,8 +3514,12 @@
       <c r="L62">
         <v>79.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>2.1810483219922268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43582.083333333336</v>
       </c>
@@ -3296,8 +3556,12 @@
       <c r="L63">
         <v>78.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>3.3199305492182614</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43582.166666666664</v>
       </c>
@@ -3334,8 +3598,12 @@
       <c r="L64">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>2.4943129595929836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43582.25</v>
       </c>
@@ -3372,8 +3640,12 @@
       <c r="L65">
         <v>72.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>0.59087631112795702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43582.333333333336</v>
       </c>
@@ -3410,8 +3682,12 @@
       <c r="L66">
         <v>52.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>0.85554934514039349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43582.416666666664</v>
       </c>
@@ -3448,8 +3724,12 @@
       <c r="L67">
         <v>44.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <f t="shared" ref="N67:N130" si="1">0.5*0.0765*0.000133*0.35*30429.57*(G67*2.24)^3</f>
+        <v>3.6123083605980516E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43582.5</v>
       </c>
@@ -3486,8 +3766,12 @@
       <c r="L68">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <f t="shared" si="1"/>
+        <v>0.15963602941395097</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43582.583333333336</v>
       </c>
@@ -3524,8 +3808,12 @@
       <c r="L69">
         <v>52.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <f t="shared" si="1"/>
+        <v>6.0521038964343035</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43582.666666666664</v>
       </c>
@@ -3562,8 +3850,12 @@
       <c r="L70">
         <v>47</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <f t="shared" si="1"/>
+        <v>6.3089992534155108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43582.75</v>
       </c>
@@ -3600,8 +3892,12 @@
       <c r="L71">
         <v>51.6</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N71">
+        <f t="shared" si="1"/>
+        <v>3.3199305492182614</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43582.833333333336</v>
       </c>
@@ -3638,8 +3934,12 @@
       <c r="L72">
         <v>56.9</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <f t="shared" si="1"/>
+        <v>0.55578420209243329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43582.916666666664</v>
       </c>
@@ -3676,8 +3976,12 @@
       <c r="L73">
         <v>61.2</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <f t="shared" si="1"/>
+        <v>0.17507446255643172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43583</v>
       </c>
@@ -3714,8 +4018,12 @@
       <c r="L74">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N74">
+        <f t="shared" si="1"/>
+        <v>2.3934686661094398E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43583.083333333336</v>
       </c>
@@ -3752,8 +4060,12 @@
       <c r="L75">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N75">
+        <f t="shared" si="1"/>
+        <v>8.5625087066027866E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43583.166666666664</v>
       </c>
@@ -3790,8 +4102,12 @@
       <c r="L76">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <f t="shared" si="1"/>
+        <v>8.0779567481193554E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43583.25</v>
       </c>
@@ -3828,8 +4144,12 @@
       <c r="L77">
         <v>73.599999999999994</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N77">
+        <f t="shared" si="1"/>
+        <v>5.5491764756570007E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43583.333333333336</v>
       </c>
@@ -3866,8 +4186,12 @@
       <c r="L78">
         <v>60.9</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <f t="shared" si="1"/>
+        <v>9.0660603145831242E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43583.416666666664</v>
       </c>
@@ -3904,8 +4228,12 @@
       <c r="L79">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <f t="shared" si="1"/>
+        <v>0.20004986719798129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43583.5</v>
       </c>
@@ -3942,8 +4270,12 @@
       <c r="L80">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <f t="shared" si="1"/>
+        <v>0.76711815599482347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43583.583333333336</v>
       </c>
@@ -3980,8 +4312,12 @@
       <c r="L81">
         <v>72.599999999999994</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <f t="shared" si="1"/>
+        <v>1.3690045204209844</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43583.666666666664</v>
       </c>
@@ -4018,8 +4354,12 @@
       <c r="L82">
         <v>76.8</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <f t="shared" si="1"/>
+        <v>1.000545901031733</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43583.75</v>
       </c>
@@ -4056,8 +4396,12 @@
       <c r="L83">
         <v>74.900000000000006</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <f t="shared" si="1"/>
+        <v>0.55578420209243329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43583.833333333336</v>
       </c>
@@ -4094,8 +4438,12 @@
       <c r="L84">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <f t="shared" si="1"/>
+        <v>0.27801176230025965</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43583.916666666664</v>
       </c>
@@ -4132,8 +4480,12 @@
       <c r="L85">
         <v>81.900000000000006</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <f t="shared" si="1"/>
+        <v>0.34819719829755691</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43584</v>
       </c>
@@ -4170,8 +4522,12 @@
       <c r="L86">
         <v>81</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <f t="shared" si="1"/>
+        <v>4.5116859997637926E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43584.083333333336</v>
       </c>
@@ -4208,8 +4564,12 @@
       <c r="L87">
         <v>81.2</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <f t="shared" si="1"/>
+        <v>5.9274034725327815E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43584.166666666664</v>
       </c>
@@ -4246,8 +4606,12 @@
       <c r="L88">
         <v>81.900000000000006</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <f t="shared" si="1"/>
+        <v>1.4852001653201484E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43584.25</v>
       </c>
@@ -4284,8 +4648,12 @@
       <c r="L89">
         <v>78.900000000000006</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <f t="shared" si="1"/>
+        <v>0.13153603497853622</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43584.333333333336</v>
       </c>
@@ -4322,8 +4690,12 @@
       <c r="L90">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <f t="shared" si="1"/>
+        <v>1.5318199463100415</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43584.416666666664</v>
       </c>
@@ -4360,8 +4732,12 @@
       <c r="L91">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <f t="shared" si="1"/>
+        <v>2.0552505465396287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43584.5</v>
       </c>
@@ -4398,8 +4774,12 @@
       <c r="L92">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <f t="shared" si="1"/>
+        <v>0.48982375225569658</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43584.583333333336</v>
       </c>
@@ -4436,8 +4816,12 @@
       <c r="L93">
         <v>24</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <f t="shared" si="1"/>
+        <v>1.3153603497853623E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43584.666666666664</v>
       </c>
@@ -4474,8 +4858,12 @@
       <c r="L94">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <f t="shared" si="1"/>
+        <v>5.6396074997047407E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43584.75</v>
       </c>
@@ -4512,8 +4900,12 @@
       <c r="L95">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <f t="shared" si="1"/>
+        <v>3.8973639993640369E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43584.833333333336</v>
       </c>
@@ -4550,8 +4942,12 @@
       <c r="L96">
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <f t="shared" si="1"/>
+        <v>9.5889769499352934E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43584.916666666664</v>
       </c>
@@ -4588,8 +4984,12 @@
       <c r="L97">
         <v>41</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <f t="shared" si="1"/>
+        <v>0.42930012519807281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43585</v>
       </c>
@@ -4626,8 +5026,12 @@
       <c r="L98">
         <v>71</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <f t="shared" si="1"/>
+        <v>1.3367958517818648E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43585.083333333336</v>
       </c>
@@ -4664,8 +5068,12 @@
       <c r="L99">
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <f t="shared" si="1"/>
+        <v>8.0779567481193554E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43585.166666666664</v>
       </c>
@@ -4702,8 +5110,12 @@
       <c r="L100">
         <v>78.099999999999994</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <f t="shared" si="1"/>
+        <v>4.8416831171474439E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43585.25</v>
       </c>
@@ -4740,8 +5152,12 @@
       <c r="L101">
         <v>77.099999999999994</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N101">
+        <f t="shared" si="1"/>
+        <v>9.5889769499352934E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43585.333333333336</v>
       </c>
@@ -4778,8 +5194,12 @@
       <c r="L102">
         <v>75.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <f t="shared" si="1"/>
+        <v>0.2467664733247332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43585.416666666664</v>
       </c>
@@ -4816,8 +5236,12 @@
       <c r="L103">
         <v>71.7</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <f t="shared" si="1"/>
+        <v>0.52210975921167824</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43585.5</v>
       </c>
@@ -4854,8 +5278,12 @@
       <c r="L104">
         <v>69.400000000000006</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <f t="shared" si="1"/>
+        <v>9.5150488265723556E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43585.583333333336</v>
       </c>
@@ -4892,8 +5320,12 @@
       <c r="L105">
         <v>66</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <f t="shared" si="1"/>
+        <v>0.950528105804895</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43585.666666666664</v>
       </c>
@@ -4930,8 +5362,12 @@
       <c r="L106">
         <v>55.8</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <f t="shared" si="1"/>
+        <v>2.7355384774442455</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43585.75</v>
       </c>
@@ -4968,8 +5404,12 @@
       <c r="L107">
         <v>58.9</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <f t="shared" si="1"/>
+        <v>0.59087631112795702</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43585.833333333336</v>
       </c>
@@ -5006,8 +5446,12 @@
       <c r="L108">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <f t="shared" si="1"/>
+        <v>0.11881601322561187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43585.916666666664</v>
       </c>
@@ -5044,8 +5488,12 @@
       <c r="L109">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <f t="shared" si="1"/>
+        <v>0.11881601322561187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43586</v>
       </c>
@@ -5082,8 +5530,12 @@
       <c r="L110">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <f t="shared" si="1"/>
+        <v>5.5491764756570007E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43586.083333333336</v>
       </c>
@@ -5120,8 +5572,12 @@
       <c r="L111">
         <v>76.8</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <f t="shared" si="1"/>
+        <v>7.6120390612578845E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43586.166666666664</v>
       </c>
@@ -5158,8 +5614,12 @@
       <c r="L112">
         <v>76.3</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <f t="shared" si="1"/>
+        <v>9.0660603145831242E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43586.25</v>
       </c>
@@ -5196,8 +5656,12 @@
       <c r="L113">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <f t="shared" si="1"/>
+        <v>8.5625087066027866E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43586.333333333336</v>
       </c>
@@ -5234,8 +5698,12 @@
       <c r="L114">
         <v>71.599999999999994</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <f t="shared" si="1"/>
+        <v>0.18315357633448839</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43586.416666666664</v>
       </c>
@@ -5272,8 +5740,12 @@
       <c r="L115">
         <v>57.2</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <f t="shared" si="1"/>
+        <v>0.32362797206031613</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43586.5</v>
       </c>
@@ -5310,8 +5782,12 @@
       <c r="L116">
         <v>47.9</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <f t="shared" si="1"/>
+        <v>1.8183541475432845</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43586.583333333336</v>
       </c>
@@ -5348,8 +5824,12 @@
       <c r="L117">
         <v>45.2</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <f t="shared" si="1"/>
+        <v>0.87867106602974521</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43586.666666666664</v>
       </c>
@@ -5386,8 +5866,12 @@
       <c r="L118">
         <v>49.8</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <f t="shared" si="1"/>
+        <v>0.85554934514039349</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43586.75</v>
       </c>
@@ -5424,8 +5908,12 @@
       <c r="L119">
         <v>62.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <f t="shared" si="1"/>
+        <v>1.4652286106759072</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43586.833333333336</v>
       </c>
@@ -5462,8 +5950,12 @@
       <c r="L120">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <f t="shared" si="1"/>
+        <v>0.57315122145147446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43586.916666666664</v>
       </c>
@@ -5500,8 +5992,12 @@
       <c r="L121">
         <v>77.099999999999994</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <f t="shared" si="1"/>
+        <v>0.48982375225569658</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43587</v>
       </c>
@@ -5538,8 +6034,12 @@
       <c r="L122">
         <v>78.2</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <f t="shared" si="1"/>
+        <v>4.4393411805255969E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43587.083333333336</v>
       </c>
@@ -5576,8 +6076,12 @@
       <c r="L123">
         <v>77.400000000000006</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <f t="shared" si="1"/>
+        <v>1.670994814727331E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43587.166666666664</v>
       </c>
@@ -5614,8 +6118,12 @@
       <c r="L124">
         <v>76.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <f t="shared" si="1"/>
+        <v>5.1873914831535334E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43587.25</v>
       </c>
@@ -5652,8 +6160,12 @@
       <c r="L125">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <f t="shared" si="1"/>
+        <v>0.12506823762896663</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43587.333333333336</v>
       </c>
@@ -5690,8 +6202,12 @@
       <c r="L126">
         <v>65.400000000000006</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <f t="shared" si="1"/>
+        <v>0.17507446255643172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43587.416666666664</v>
       </c>
@@ -5728,8 +6244,12 @@
       <c r="L127">
         <v>50.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <f t="shared" si="1"/>
+        <v>0.30024257013788214</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43587.5</v>
       </c>
@@ -5766,8 +6286,12 @@
       <c r="L128">
         <v>43.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <f t="shared" si="1"/>
+        <v>0.19147749328875519</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43587.583333333336</v>
       </c>
@@ -5804,8 +6328,12 @@
       <c r="L129">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <f t="shared" si="1"/>
+        <v>6.0896312490063076E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43587.666666666664</v>
       </c>
@@ -5842,8 +6370,12 @@
       <c r="L130">
         <v>57</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N130">
+        <f t="shared" si="1"/>
+        <v>0.12506823762896663</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43587.75</v>
       </c>
@@ -5880,8 +6412,12 @@
       <c r="L131">
         <v>71.900000000000006</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N131">
+        <f t="shared" ref="N131:N194" si="2">0.5*0.0765*0.000133*0.35*30429.57*(G131*2.24)^3</f>
+        <v>1.0788153225120864</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43587.833333333336</v>
       </c>
@@ -5918,8 +6454,12 @@
       <c r="L132">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <f t="shared" si="2"/>
+        <v>0.81052991924273965</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43587.916666666664</v>
       </c>
@@ -5956,8 +6496,12 @@
       <c r="L133">
         <v>72.099999999999994</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <f t="shared" si="2"/>
+        <v>0.17507446255643172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43588</v>
       </c>
@@ -5994,8 +6538,12 @@
       <c r="L134">
         <v>73.2</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N134">
+        <f t="shared" si="2"/>
+        <v>0.76711815599482347</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43588.083333333336</v>
       </c>
@@ -6032,8 +6580,12 @@
       <c r="L135">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <f t="shared" si="2"/>
+        <v>0.78862490667693885</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43588.166666666664</v>
       </c>
@@ -6070,8 +6622,12 @@
       <c r="L136">
         <v>74.400000000000006</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N136">
+        <f t="shared" si="2"/>
+        <v>0.40100404463643996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43588.25</v>
       </c>
@@ -6108,8 +6664,12 @@
       <c r="L137">
         <v>74.400000000000006</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <f t="shared" si="2"/>
+        <v>0.60896312490063076</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43588.333333333336</v>
       </c>
@@ -6146,8 +6706,12 @@
       <c r="L138">
         <v>71.900000000000006</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N138">
+        <f t="shared" si="2"/>
+        <v>0.72528482516664994</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43588.416666666664</v>
       </c>
@@ -6184,8 +6748,12 @@
       <c r="L139">
         <v>65.7</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N139">
+        <f t="shared" si="2"/>
+        <v>1.5658591581026118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43588.5</v>
       </c>
@@ -6222,8 +6790,12 @@
       <c r="L140">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N140">
+        <f t="shared" si="2"/>
+        <v>0.90220566391777968</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43588.583333333336</v>
       </c>
@@ -6260,8 +6832,12 @@
       <c r="L141">
         <v>71.2</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N141">
+        <f t="shared" si="2"/>
+        <v>1.133199383344462</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43588.666666666664</v>
       </c>
@@ -6298,8 +6874,12 @@
       <c r="L142">
         <v>70.900000000000006</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N142">
+        <f t="shared" si="2"/>
+        <v>0.48982375225569658</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43588.75</v>
       </c>
@@ -6336,8 +6916,12 @@
       <c r="L143">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N143">
+        <f t="shared" si="2"/>
+        <v>0.20887435184091632</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43588.833333333336</v>
       </c>
@@ -6374,8 +6958,12 @@
       <c r="L144">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N144">
+        <f t="shared" si="2"/>
+        <v>5.5491764756570007E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43588.916666666664</v>
       </c>
@@ -6412,8 +7000,12 @@
       <c r="L145">
         <v>77</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N145">
+        <f t="shared" si="2"/>
+        <v>5.5491764756570007E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43589</v>
       </c>
@@ -6450,8 +7042,12 @@
       <c r="L146">
         <v>78.099999999999994</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N146">
+        <f t="shared" si="2"/>
+        <v>4.5116859997637926E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43589.083333333336</v>
       </c>
@@ -6488,8 +7084,12 @@
       <c r="L147">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N147">
+        <f t="shared" si="2"/>
+        <v>9.0660603145831242E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43589.166666666664</v>
       </c>
@@ -6526,8 +7126,12 @@
       <c r="L148">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N148">
+        <f t="shared" si="2"/>
+        <v>1.1986221187419117E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43589.25</v>
       </c>
@@ -6564,8 +7168,12 @@
       <c r="L149">
         <v>77.8</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N149">
+        <f t="shared" si="2"/>
+        <v>0.11277570798972246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43589.333333333336</v>
       </c>
@@ -6602,8 +7210,12 @@
       <c r="L150">
         <v>71.3</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <f t="shared" si="2"/>
+        <v>0.48982375225569658</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43589.416666666664</v>
       </c>
@@ -6640,8 +7252,12 @@
       <c r="L151">
         <v>65.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N151">
+        <f t="shared" si="2"/>
+        <v>0.74600601341764339</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43589.5</v>
       </c>
@@ -6678,8 +7294,12 @@
       <c r="L152">
         <v>59</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <f t="shared" si="2"/>
+        <v>1.6709948147273306</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43589.583333333336</v>
       </c>
@@ -6716,8 +7336,12 @@
       <c r="L153">
         <v>50</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N153">
+        <f t="shared" si="2"/>
+        <v>1.3378919854066857</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43589.666666666664</v>
       </c>
@@ -6754,8 +7378,12 @@
       <c r="L154">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N154">
+        <f t="shared" si="2"/>
+        <v>0.70495093746309279</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43589.75</v>
       </c>
@@ -6792,8 +7420,12 @@
       <c r="L155">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N155">
+        <f t="shared" si="2"/>
+        <v>3.1178911994912299E-4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43589.833333333336</v>
       </c>
@@ -6830,8 +7462,12 @@
       <c r="L156">
         <v>67.7</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <f t="shared" si="2"/>
+        <v>0.17507446255643172</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43589.916666666664</v>
       </c>
@@ -6868,8 +7504,12 @@
       <c r="L157">
         <v>69.900000000000006</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N157">
+        <f t="shared" si="2"/>
+        <v>0.10131623990534246</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43590</v>
       </c>
@@ -6906,8 +7546,12 @@
       <c r="L158">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <f t="shared" si="2"/>
+        <v>2.3934686661094398E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43590.083333333336</v>
       </c>
@@ -6944,8 +7588,12 @@
       <c r="L159">
         <v>76.3</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N159">
+        <f t="shared" si="2"/>
+        <v>4.4393411805255969E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43590.166666666664</v>
       </c>
@@ -6982,8 +7630,12 @@
       <c r="L160">
         <v>78.599999999999994</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N160">
+        <f t="shared" si="2"/>
+        <v>0.19147749328875519</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43590.25</v>
       </c>
@@ -7020,8 +7672,12 @@
       <c r="L161">
         <v>79.599999999999994</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N161">
+        <f t="shared" si="2"/>
+        <v>0.13153603497853622</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43590.333333333336</v>
       </c>
@@ -7058,8 +7714,12 @@
       <c r="L162">
         <v>76.7</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N162">
+        <f t="shared" si="2"/>
+        <v>0.10131623990534246</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43590.416666666664</v>
       </c>
@@ -7096,8 +7756,12 @@
       <c r="L163">
         <v>73.099999999999994</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N163">
+        <f t="shared" si="2"/>
+        <v>4.1768780736934257E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>43590.5</v>
       </c>
@@ -7134,8 +7798,12 @@
       <c r="L164">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <f t="shared" si="2"/>
+        <v>0.78862490667693885</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>43590.583333333336</v>
       </c>
@@ -7172,8 +7840,12 @@
       <c r="L165">
         <v>69.7</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N165">
+        <f t="shared" si="2"/>
+        <v>0.97532325736147352</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>43590.666666666664</v>
       </c>
@@ -7210,8 +7882,12 @@
       <c r="L166">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N166">
+        <f t="shared" si="2"/>
+        <v>0.5387715992720844</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>43590.75</v>
       </c>
@@ -7248,8 +7924,12 @@
       <c r="L167">
         <v>76</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N167">
+        <f t="shared" si="2"/>
+        <v>0.21795460099630962</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43590.833333333336</v>
       </c>
@@ -7286,8 +7966,12 @@
       <c r="L168">
         <v>77.8</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <f t="shared" si="2"/>
+        <v>0.20004986719798129</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>43590.916666666664</v>
       </c>
@@ -7324,8 +8008,12 @@
       <c r="L169">
         <v>76.400000000000006</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N169">
+        <f t="shared" si="2"/>
+        <v>0.37397947907959983</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>43591</v>
       </c>
@@ -7362,8 +8050,12 @@
       <c r="L170">
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N170">
+        <f t="shared" si="2"/>
+        <v>0.28898466884784413</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>43591.083333333336</v>
       </c>
@@ -7400,8 +8092,12 @@
       <c r="L171">
         <v>76.7</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <f t="shared" si="2"/>
+        <v>0.28898466884784413</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>43591.166666666664</v>
       </c>
@@ -7438,8 +8134,12 @@
       <c r="L172">
         <v>80.8</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <f t="shared" si="2"/>
+        <v>0.21795460099630962</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>43591.25</v>
       </c>
@@ -7476,8 +8176,12 @@
       <c r="L173">
         <v>77.3</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N173">
+        <f t="shared" si="2"/>
+        <v>0.31178911994912295</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>43591.333333333336</v>
       </c>
@@ -7514,8 +8218,12 @@
       <c r="L174">
         <v>63.7</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <f t="shared" si="2"/>
+        <v>0.36093487998110341</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>43591.416666666664</v>
       </c>
@@ -7552,8 +8260,12 @@
       <c r="L175">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <f t="shared" si="2"/>
+        <v>1.0522882798282898</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>43591.5</v>
       </c>
@@ -7590,8 +8302,12 @@
       <c r="L176">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <f t="shared" si="2"/>
+        <v>2.0144189600519158</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>43591.583333333336</v>
       </c>
@@ -7628,8 +8344,12 @@
       <c r="L177">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <f>0.5*0.0765*0.000133*0.35*30429.57*(G177*2.24)^3</f>
+        <v>0.20004986719798129</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>43591.666666666664</v>
       </c>
@@ -7666,8 +8386,12 @@
       <c r="L178">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <f t="shared" si="2"/>
+        <v>4.5116859997637926E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>43591.75</v>
       </c>
@@ -7704,8 +8428,12 @@
       <c r="L179">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <f t="shared" si="2"/>
+        <v>0.78862490667693885</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>43591.833333333336</v>
       </c>
@@ -7742,8 +8470,12 @@
       <c r="L180">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <f t="shared" si="2"/>
+        <v>0.59087631112795702</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>43591.916666666664</v>
       </c>
@@ -7780,8 +8512,12 @@
       <c r="L181">
         <v>67.3</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N181">
+        <f t="shared" si="2"/>
+        <v>0.50579502813246535</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>43592</v>
       </c>
@@ -7818,8 +8554,12 @@
       <c r="L182">
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <f t="shared" si="2"/>
+        <v>0.2467664733247332</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>43592.083333333336</v>
       </c>
@@ -7856,8 +8596,12 @@
       <c r="L183">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <f t="shared" si="2"/>
+        <v>3.084580916559165E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>43592.166666666664</v>
       </c>
@@ -7894,8 +8638,12 @@
       <c r="L184">
         <v>72.8</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <f t="shared" si="2"/>
+        <v>8.5625087066027866E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>43592.25</v>
       </c>
@@ -7932,8 +8680,12 @@
       <c r="L185">
         <v>69.099999999999994</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <f t="shared" si="2"/>
+        <v>4.1970347531276354E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>43592.333333333336</v>
       </c>
@@ -7970,8 +8722,12 @@
       <c r="L186">
         <v>57.7</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <f t="shared" si="2"/>
+        <v>1.6354429385325064</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>43592.416666666664</v>
       </c>
@@ -8008,8 +8764,12 @@
       <c r="L187">
         <v>52</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <f t="shared" si="2"/>
+        <v>2.8362232225890658</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>43592.5</v>
       </c>
@@ -8046,8 +8806,12 @@
       <c r="L188">
         <v>42.2</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <f t="shared" si="2"/>
+        <v>3.4926099598044598</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>43592.583333333336</v>
       </c>
@@ -8084,8 +8848,12 @@
       <c r="L189">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N189">
+        <f t="shared" si="2"/>
+        <v>3.6711756079559454</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>43592.666666666664</v>
       </c>
@@ -8122,8 +8890,12 @@
       <c r="L190">
         <v>40.9</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N190">
+        <f t="shared" si="2"/>
+        <v>2.2677025567393363</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>43592.75</v>
       </c>
@@ -8160,8 +8932,12 @@
       <c r="L191">
         <v>75.2</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N191">
+        <f t="shared" si="2"/>
+        <v>0.20887435184091632</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>43592.833333333336</v>
       </c>
@@ -8198,8 +8974,12 @@
       <c r="L192">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N192">
+        <f t="shared" si="2"/>
+        <v>0.10694366814254919</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43592.916666666664</v>
       </c>
@@ -8236,8 +9016,12 @@
       <c r="L193">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N193">
+        <f t="shared" si="2"/>
+        <v>0.20887435184091632</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43593</v>
       </c>
@@ -8274,8 +9058,12 @@
       <c r="L194">
         <v>75.3</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <f t="shared" si="2"/>
+        <v>1.0261996905944217</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43593.083333333336</v>
       </c>
@@ -8312,8 +9100,12 @@
       <c r="L195">
         <v>77</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <f t="shared" ref="N195:N258" si="3">0.5*0.0765*0.000133*0.35*30429.57*(G195*2.24)^3</f>
+        <v>1.5318199463100415</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43593.166666666664</v>
       </c>
@@ -8350,8 +9142,12 @@
       <c r="L196">
         <v>74.900000000000006</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <f t="shared" si="3"/>
+        <v>0.55578420209243329</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43593.25</v>
       </c>
@@ -8388,8 +9184,12 @@
       <c r="L197">
         <v>73.2</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <f t="shared" si="3"/>
+        <v>1.6354429385325064</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43593.333333333336</v>
       </c>
@@ -8426,8 +9226,12 @@
       <c r="L198">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N198">
+        <f t="shared" si="3"/>
+        <v>1.5318199463100415</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43593.416666666664</v>
       </c>
@@ -8464,8 +9268,12 @@
       <c r="L199">
         <v>45.7</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <f t="shared" si="3"/>
+        <v>3.2636617475143179</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43593.5</v>
       </c>
@@ -8502,8 +9310,12 @@
       <c r="L200">
         <v>32.799999999999997</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <f t="shared" si="3"/>
+        <v>3.732022594432892</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43593.583333333336</v>
       </c>
@@ -8540,8 +9352,12 @@
       <c r="L201">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <f t="shared" si="3"/>
+        <v>3.6711756079559454</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43593.666666666664</v>
       </c>
@@ -8578,8 +9394,12 @@
       <c r="L202">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N202">
+        <f t="shared" si="3"/>
+        <v>2.3566221343110763</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43593.75</v>
       </c>
@@ -8616,8 +9436,12 @@
       <c r="L203">
         <v>32.1</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N203">
+        <f t="shared" si="3"/>
+        <v>0.20887435184091632</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43593.833333333336</v>
       </c>
@@ -8654,8 +9478,12 @@
       <c r="L204">
         <v>50.6</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N204">
+        <f t="shared" si="3"/>
+        <v>9.0660603145831242E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43593.916666666664</v>
       </c>
@@ -8692,8 +9520,12 @@
       <c r="L205">
         <v>60.6</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <f t="shared" si="3"/>
+        <v>0.11277570798972246</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43594</v>
       </c>
@@ -8730,8 +9562,12 @@
       <c r="L206">
         <v>67.400000000000006</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N206">
+        <f t="shared" si="3"/>
+        <v>0.10694366814254919</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43594.083333333336</v>
       </c>
@@ -8768,8 +9604,12 @@
       <c r="L207">
         <v>65.400000000000006</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <f t="shared" si="3"/>
+        <v>0.13153603497853622</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43594.166666666664</v>
       </c>
@@ -8806,8 +9646,12 @@
       <c r="L208">
         <v>45.6</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N208">
+        <f t="shared" si="3"/>
+        <v>0.15963602941395097</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43594.25</v>
       </c>
@@ -8844,8 +9688,12 @@
       <c r="L209">
         <v>37.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <f t="shared" si="3"/>
+        <v>2.610929398011454E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43594.333333333336</v>
       </c>
@@ -8882,8 +9730,12 @@
       <c r="L210">
         <v>32.6</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N210">
+        <f t="shared" si="3"/>
+        <v>1.1893811033215442</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43594.416666666664</v>
       </c>
@@ -8920,8 +9772,12 @@
       <c r="L211">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N211">
+        <f t="shared" si="3"/>
+        <v>1.9343853723987259</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43594.5</v>
       </c>
@@ -8958,8 +9814,12 @@
       <c r="L212">
         <v>31.3</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N212">
+        <f t="shared" si="3"/>
+        <v>4.2431764980644822</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43594.583333333336</v>
       </c>
@@ -8996,8 +9856,12 @@
       <c r="L213">
         <v>39.299999999999997</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N213">
+        <f t="shared" si="3"/>
+        <v>1.8951760636757493</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43594.666666666664</v>
       </c>
@@ -9034,8 +9898,12 @@
       <c r="L214">
         <v>42.4</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N214">
+        <f t="shared" si="3"/>
+        <v>2.0552505465396287</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43594.75</v>
       </c>
@@ -9072,8 +9940,12 @@
       <c r="L215">
         <v>41.1</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N215">
+        <f t="shared" si="3"/>
+        <v>2.0966301998397516</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43594.833333333336</v>
       </c>
@@ -9110,8 +9982,12 @@
       <c r="L216">
         <v>42.7</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N216">
+        <f t="shared" si="3"/>
+        <v>1.5318199463100415</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43594.916666666664</v>
       </c>
@@ -9148,8 +10024,12 @@
       <c r="L217">
         <v>48</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N217">
+        <f t="shared" si="3"/>
+        <v>1.1057844724245602</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43595</v>
       </c>
@@ -9186,8 +10066,12 @@
       <c r="L218">
         <v>54.2</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N218">
+        <f t="shared" si="3"/>
+        <v>1.133199383344462</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43595.083333333336</v>
       </c>
@@ -9224,8 +10108,12 @@
       <c r="L219">
         <v>62.3</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N219">
+        <f t="shared" si="3"/>
+        <v>1.1057844724245602</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43595.166666666664</v>
       </c>
@@ -9262,8 +10150,12 @@
       <c r="L220">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <f t="shared" si="3"/>
+        <v>1.9343853723987259</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43595.25</v>
       </c>
@@ -9300,8 +10192,12 @@
       <c r="L221">
         <v>68.900000000000006</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N221">
+        <f t="shared" si="3"/>
+        <v>1.5318199463100415</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43595.333333333336</v>
       </c>
@@ -9338,8 +10234,12 @@
       <c r="L222">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N222">
+        <f t="shared" si="3"/>
+        <v>1.5318199463100415</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43595.416666666664</v>
       </c>
@@ -9376,8 +10276,12 @@
       <c r="L223">
         <v>71.8</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N223">
+        <f t="shared" si="3"/>
+        <v>1.30725444162981</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43595.5</v>
       </c>
@@ -9414,8 +10318,12 @@
       <c r="L224">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N224">
+        <f t="shared" si="3"/>
+        <v>0.26732019671637924</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43595.583333333336</v>
       </c>
@@ -9452,8 +10360,12 @@
       <c r="L225">
         <v>72.7</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N225">
+        <f t="shared" si="3"/>
+        <v>0.32362797206031613</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43595.666666666664</v>
       </c>
@@ -9490,8 +10402,12 @@
       <c r="L226">
         <v>59.3</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N226">
+        <f t="shared" si="3"/>
+        <v>1.3378919854066857</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43595.75</v>
       </c>
@@ -9528,8 +10444,12 @@
       <c r="L227">
         <v>60.7</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N227">
+        <f t="shared" si="3"/>
+        <v>0.41499131865228267</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43595.833333333336</v>
       </c>
@@ -9566,8 +10486,12 @@
       <c r="L228">
         <v>73.2</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N228">
+        <f t="shared" si="3"/>
+        <v>0.13822305905307003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43595.916666666664</v>
       </c>
@@ -9604,8 +10528,12 @@
       <c r="L229">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N229">
+        <f t="shared" si="3"/>
+        <v>1.5318199463100415</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43596</v>
       </c>
@@ -9642,8 +10570,12 @@
       <c r="L230">
         <v>77</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N230">
+        <f t="shared" si="3"/>
+        <v>1.4005957004514538</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43596.083333333336</v>
       </c>
@@ -9680,8 +10612,12 @@
       <c r="L231">
         <v>75.7</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N231">
+        <f t="shared" si="3"/>
+        <v>0.44393411805256006</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43596.166666666664</v>
       </c>
@@ -9718,8 +10654,12 @@
       <c r="L232">
         <v>71.900000000000006</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N232">
+        <f t="shared" si="3"/>
+        <v>0.950528105804895</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43596.25</v>
       </c>
@@ -9756,8 +10696,12 @@
       <c r="L233">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N233">
+        <f t="shared" si="3"/>
+        <v>3.6109936092113899</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43596.333333333336</v>
       </c>
@@ -9794,8 +10738,12 @@
       <c r="L234">
         <v>54.5</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N234">
+        <f t="shared" si="3"/>
+        <v>10.336901197196369</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43596.416666666664</v>
       </c>
@@ -9832,8 +10780,12 @@
       <c r="L235">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N235">
+        <f t="shared" si="3"/>
+        <v>8.0043672082538642</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43596.5</v>
       </c>
@@ -9870,8 +10822,12 @@
       <c r="L236">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N236">
+        <f t="shared" si="3"/>
+        <v>5.9680481073411471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43596.583333333336</v>
       </c>
@@ -9908,8 +10864,12 @@
       <c r="L237">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N237">
+        <f t="shared" si="3"/>
+        <v>5.0193225323859592</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43596.666666666664</v>
       </c>
@@ -9946,8 +10906,12 @@
       <c r="L238">
         <v>30.9</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N238">
+        <f t="shared" si="3"/>
+        <v>2.2240940984020772</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43596.75</v>
       </c>
@@ -9984,8 +10948,12 @@
       <c r="L239">
         <v>37</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N239">
+        <f t="shared" si="3"/>
+        <v>0.68500069652822293</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43596.833333333336</v>
       </c>
@@ -10022,8 +10990,12 @@
       <c r="L240">
         <v>50.1</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N240">
+        <f t="shared" si="3"/>
+        <v>0.52210975921167824</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43596.916666666664</v>
       </c>
@@ -10060,8 +11032,12 @@
       <c r="L241">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N241">
+        <f t="shared" si="3"/>
+        <v>0.14513296363131747</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43597</v>
       </c>
@@ -10098,8 +11074,12 @@
       <c r="L242">
         <v>54.8</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N242">
+        <f t="shared" si="3"/>
+        <v>0.27801176230025965</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43597.083333333336</v>
       </c>
@@ -10136,8 +11116,12 @@
       <c r="L243">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N243">
+        <f t="shared" si="3"/>
+        <v>0.74600601341764339</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43597.166666666664</v>
       </c>
@@ -10174,8 +11158,12 @@
       <c r="L244">
         <v>70.2</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N244">
+        <f t="shared" si="3"/>
+        <v>0.72528482516664994</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43597.25</v>
       </c>
@@ -10212,8 +11200,12 @@
       <c r="L245">
         <v>74.8</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N245">
+        <f t="shared" si="3"/>
+        <v>0.76711815599482347</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43597.333333333336</v>
       </c>
@@ -10250,8 +11242,12 @@
       <c r="L246">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N246">
+        <f t="shared" si="3"/>
+        <v>0.50579502813246535</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43597.416666666664</v>
       </c>
@@ -10288,8 +11284,12 @@
       <c r="L247">
         <v>73.7</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N247">
+        <f t="shared" si="3"/>
+        <v>1.4982776484273894</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>43597.5</v>
       </c>
@@ -10326,8 +11326,12 @@
       <c r="L248">
         <v>76.099999999999994</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N248">
+        <f t="shared" si="3"/>
+        <v>1.6003989375838503</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>43597.583333333336</v>
       </c>
@@ -10364,8 +11368,12 @@
       <c r="L249">
         <v>76.400000000000006</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N249">
+        <f t="shared" si="3"/>
+        <v>1.0522882798282898</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>43597.666666666664</v>
       </c>
@@ -10402,8 +11410,12 @@
       <c r="L250">
         <v>76.7</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N250">
+        <f t="shared" si="3"/>
+        <v>0.40100404463643996</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>43597.75</v>
       </c>
@@ -10440,8 +11452,12 @@
       <c r="L251">
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N251">
+        <f t="shared" si="3"/>
+        <v>0.37397947907959983</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>43597.833333333336</v>
       </c>
@@ -10478,8 +11494,12 @@
       <c r="L252">
         <v>76</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N252">
+        <f t="shared" si="3"/>
+        <v>0.55578420209243329</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>43597.916666666664</v>
       </c>
@@ -10516,8 +11536,12 @@
       <c r="L253">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N253">
+        <f t="shared" si="3"/>
+        <v>0.48982375225569658</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>43598</v>
       </c>
@@ -10554,8 +11578,12 @@
       <c r="L254">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N254">
+        <f t="shared" si="3"/>
+        <v>0.44393411805256006</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>43598.083333333336</v>
       </c>
@@ -10592,8 +11620,12 @@
       <c r="L255">
         <v>74.3</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N255">
+        <f t="shared" si="3"/>
+        <v>0.11277570798972246</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>43598.166666666664</v>
       </c>
@@ -10630,8 +11662,12 @@
       <c r="L256">
         <v>72.3</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N256">
+        <f t="shared" si="3"/>
+        <v>0.20004986719798129</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>43598.25</v>
       </c>
@@ -10668,8 +11704,12 @@
       <c r="L257">
         <v>66.900000000000006</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N257">
+        <f t="shared" si="3"/>
+        <v>0.20004986719798129</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>43598.333333333336</v>
       </c>
@@ -10706,8 +11746,12 @@
       <c r="L258">
         <v>60.9</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N258">
+        <f t="shared" si="3"/>
+        <v>0.68500069652822293</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>43598.416666666664</v>
       </c>
@@ -10744,8 +11788,12 @@
       <c r="L259">
         <v>56.6</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N259">
+        <f t="shared" ref="N259:N322" si="4">0.5*0.0765*0.000133*0.35*30429.57*(G259*2.24)^3</f>
+        <v>0.950528105804895</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>43598.5</v>
       </c>
@@ -10782,8 +11830,12 @@
       <c r="L260">
         <v>56.7</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N260">
+        <f t="shared" si="4"/>
+        <v>0.97532325736147352</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>43598.583333333336</v>
       </c>
@@ -10820,8 +11872,12 @@
       <c r="L261">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N261">
+        <f t="shared" si="4"/>
+        <v>7.6120390612578845E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>43598.666666666664</v>
       </c>
@@ -10858,8 +11914,12 @@
       <c r="L262">
         <v>74.8</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N262">
+        <f t="shared" si="4"/>
+        <v>1.3367958517818648E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>43598.75</v>
       </c>
@@ -10896,8 +11956,12 @@
       <c r="L263">
         <v>74.099999999999994</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N263">
+        <f t="shared" si="4"/>
+        <v>0.20887435184091632</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>43598.833333333336</v>
       </c>
@@ -10934,8 +11998,12 @@
       <c r="L264">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N264">
+        <f t="shared" si="4"/>
+        <v>0.25690631831745359</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>43598.916666666664</v>
       </c>
@@ -10972,8 +12040,12 @@
       <c r="L265">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N265">
+        <f t="shared" si="4"/>
+        <v>0.2467664733247332</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>43599</v>
       </c>
@@ -11010,8 +12082,12 @@
       <c r="L266">
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N266">
+        <f t="shared" si="4"/>
+        <v>0.10131623990534246</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>43599.083333333336</v>
       </c>
@@ -11048,8 +12124,12 @@
       <c r="L267">
         <v>76.599999999999994</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N267">
+        <f t="shared" si="4"/>
+        <v>7.6120390612578845E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>43599.166666666664</v>
       </c>
@@ -11086,8 +12166,12 @@
       <c r="L268">
         <v>76.8</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N268">
+        <f t="shared" si="4"/>
+        <v>4.8416831171474439E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>43599.25</v>
       </c>
@@ -11124,8 +12208,12 @@
       <c r="L269">
         <v>71.7</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N269">
+        <f t="shared" si="4"/>
+        <v>0.27801176230025965</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>43599.333333333336</v>
       </c>
@@ -11162,8 +12250,12 @@
       <c r="L270">
         <v>63</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N270">
+        <f t="shared" si="4"/>
+        <v>0.41499131865228267</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>43599.416666666664</v>
       </c>
@@ -11200,8 +12292,12 @@
       <c r="L271">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N271">
+        <f t="shared" si="4"/>
+        <v>2.610929398011454E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>43599.5</v>
       </c>
@@ -11238,8 +12334,12 @@
       <c r="L272">
         <v>55.6</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N272">
+        <f t="shared" si="4"/>
+        <v>1.0522882798282898E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>43599.583333333336</v>
       </c>
@@ -11276,8 +12376,12 @@
       <c r="L273">
         <v>58.9</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N273">
+        <f t="shared" si="4"/>
+        <v>0.20887435184091632</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>43599.666666666664</v>
       </c>
@@ -11314,8 +12418,12 @@
       <c r="L274">
         <v>60.6</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N274">
+        <f t="shared" si="4"/>
+        <v>0.20887435184091632</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>43599.75</v>
       </c>
@@ -11352,8 +12460,12 @@
       <c r="L275">
         <v>69.2</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N275">
+        <f t="shared" si="4"/>
+        <v>2.4943129595929839E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>43599.833333333336</v>
       </c>
@@ -11390,8 +12502,12 @@
       <c r="L276">
         <v>75.3</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N276">
+        <f t="shared" si="4"/>
+        <v>2.610929398011454E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>43599.916666666664</v>
       </c>
@@ -11428,8 +12544,12 @@
       <c r="L277">
         <v>78.2</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N277">
+        <f t="shared" si="4"/>
+        <v>0.42930012519807281</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>43600</v>
       </c>
@@ -11466,8 +12586,12 @@
       <c r="L278">
         <v>78.2</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N278">
+        <f t="shared" si="4"/>
+        <v>0.57315122145147446</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>43600.083333333336</v>
       </c>
@@ -11504,8 +12628,12 @@
       <c r="L279">
         <v>77.400000000000006</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N279">
+        <f t="shared" si="4"/>
+        <v>0.17507446255643172</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>43600.166666666664</v>
       </c>
@@ -11542,8 +12670,12 @@
       <c r="L280">
         <v>77.099999999999994</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N280">
+        <f t="shared" si="4"/>
+        <v>0.37397947907959983</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>43600.25</v>
       </c>
@@ -11580,8 +12712,12 @@
       <c r="L281">
         <v>70.599999999999994</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N281">
+        <f t="shared" si="4"/>
+        <v>3.2080323570915197</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>43600.333333333336</v>
       </c>
@@ -11618,8 +12754,12 @@
       <c r="L282">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N282">
+        <f t="shared" si="4"/>
+        <v>3.7935382224209802</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>43600.416666666664</v>
       </c>
@@ -11656,8 +12796,12 @@
       <c r="L283">
         <v>45.5</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N283">
+        <f t="shared" si="4"/>
+        <v>6.8443947611231479</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>43600.5</v>
       </c>
@@ -11694,8 +12838,12 @@
       <c r="L284">
         <v>36</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N284">
+        <f t="shared" si="4"/>
+        <v>4.6557502331109113</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>43600.583333333336</v>
       </c>
@@ -11732,8 +12880,12 @@
       <c r="L285">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N285">
+        <f t="shared" si="4"/>
+        <v>2.7355384774442455</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>43600.666666666664</v>
       </c>
@@ -11770,8 +12922,12 @@
       <c r="L286">
         <v>34.4</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N286">
+        <f t="shared" si="4"/>
+        <v>0.83283684747097486</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>43600.75</v>
       </c>
@@ -11808,8 +12964,12 @@
       <c r="L287">
         <v>44</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N287">
+        <f t="shared" si="4"/>
+        <v>0.19147749328875519</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>43600.833333333336</v>
       </c>
@@ -11846,8 +13006,12 @@
       <c r="L288">
         <v>62.8</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N288">
+        <f t="shared" si="4"/>
+        <v>5.1873914831535334E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>43600.916666666664</v>
       </c>
@@ -11884,8 +13048,12 @@
       <c r="L289">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N289">
+        <f t="shared" si="4"/>
+        <v>2.3934686661094398E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>43601</v>
       </c>
@@ -11922,8 +13090,12 @@
       <c r="L290">
         <v>76</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N290">
+        <f t="shared" si="4"/>
+        <v>5.9274034725327815E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>43601.083333333336</v>
       </c>
@@ -11960,8 +13132,12 @@
       <c r="L291">
         <v>78.8</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N291">
+        <f t="shared" si="4"/>
+        <v>0.21795460099630962</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>43601.166666666664</v>
       </c>
@@ -11998,8 +13174,12 @@
       <c r="L292">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N292">
+        <f t="shared" si="4"/>
+        <v>0.15963602941395097</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>43601.25</v>
       </c>
@@ -12036,8 +13216,12 @@
       <c r="L293">
         <v>78.2</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N293">
+        <f t="shared" si="4"/>
+        <v>0.27801176230025965</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>43601.333333333336</v>
       </c>
@@ -12074,8 +13258,12 @@
       <c r="L294">
         <v>57.4</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N294">
+        <f t="shared" si="4"/>
+        <v>2.8874790398488273</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>43601.416666666664</v>
       </c>
@@ -12112,8 +13300,12 @@
       <c r="L295">
         <v>42.3</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N295">
+        <f t="shared" si="4"/>
+        <v>4.1112738672847557</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>43601.5</v>
       </c>
@@ -12150,8 +13342,12 @@
       <c r="L296">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N296">
+        <f t="shared" si="4"/>
+        <v>3.7935382224209802</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>43601.583333333336</v>
       </c>
@@ -12188,8 +13384,12 @@
       <c r="L297">
         <v>27.1</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N297">
+        <f t="shared" si="4"/>
+        <v>2.1385615737310339</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>43601.666666666664</v>
       </c>
@@ -12226,8 +13426,12 @@
       <c r="L298">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N298">
+        <f t="shared" si="4"/>
+        <v>1.30725444162981</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>43601.75</v>
       </c>
@@ -12264,8 +13468,12 @@
       <c r="L299">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N299">
+        <f t="shared" si="4"/>
+        <v>2.610929398011454E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>43601.833333333336</v>
       </c>
@@ -12302,8 +13510,12 @@
       <c r="L300">
         <v>55.7</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N300">
+        <f t="shared" si="4"/>
+        <v>4.8416831171474439E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>43601.916666666664</v>
       </c>
@@ -12340,8 +13552,12 @@
       <c r="L301">
         <v>60.7</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N301">
+        <f t="shared" si="4"/>
+        <v>5.5491764756570007E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>43602</v>
       </c>
@@ -12378,8 +13594,12 @@
       <c r="L302">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N302">
+        <f t="shared" si="4"/>
+        <v>0.11277570798972246</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>43602.083333333336</v>
       </c>
@@ -12416,8 +13636,12 @@
       <c r="L303">
         <v>66.8</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N303">
+        <f t="shared" si="4"/>
+        <v>1.670994814727331E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>43602.166666666664</v>
       </c>
@@ -12454,8 +13678,12 @@
       <c r="L304">
         <v>70.400000000000006</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N304">
+        <f t="shared" si="4"/>
+        <v>6.734644990901055E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>43602.25</v>
       </c>
@@ -12492,8 +13720,12 @@
       <c r="L305">
         <v>67.2</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N305">
+        <f t="shared" si="4"/>
+        <v>0.11277570798972246</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>43602.333333333336</v>
       </c>
@@ -12530,8 +13762,12 @@
       <c r="L306">
         <v>51.4</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N306">
+        <f t="shared" si="4"/>
+        <v>5.9274034725327815E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>43602.416666666664</v>
       </c>
@@ -12568,8 +13804,12 @@
       <c r="L307">
         <v>40.9</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N307">
+        <f t="shared" si="4"/>
+        <v>0.15226940249202803</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>43602.5</v>
       </c>
@@ -12606,8 +13846,12 @@
       <c r="L308">
         <v>67</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N308">
+        <f t="shared" si="4"/>
+        <v>1.3378919854066854E-3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>43602.583333333336</v>
       </c>
@@ -12644,8 +13888,12 @@
       <c r="L309">
         <v>67</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N309">
+        <f t="shared" si="4"/>
+        <v>0.19147749328875519</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>43602.666666666664</v>
       </c>
@@ -12682,8 +13930,12 @@
       <c r="L310">
         <v>58.1</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N310">
+        <f t="shared" si="4"/>
+        <v>8.4183062386263188E-3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>43602.75</v>
       </c>
@@ -12720,8 +13972,12 @@
       <c r="L311">
         <v>58.7</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N311">
+        <f t="shared" si="4"/>
+        <v>0.21795460099630962</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>43602.833333333336</v>
       </c>
@@ -12758,8 +14014,12 @@
       <c r="L312">
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N312">
+        <f t="shared" si="4"/>
+        <v>0.15226940249202803</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>43602.916666666664</v>
       </c>
@@ -12796,8 +14056,12 @@
       <c r="L313">
         <v>67.400000000000006</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N313">
+        <f t="shared" si="4"/>
+        <v>0.42930012519807281</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>43603</v>
       </c>
@@ -12834,8 +14098,12 @@
       <c r="L314">
         <v>56.8</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N314">
+        <f t="shared" si="4"/>
+        <v>0.44393411805256006</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>43603.083333333336</v>
       </c>
@@ -12872,8 +14140,12 @@
       <c r="L315">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N315">
+        <f t="shared" si="4"/>
+        <v>0.47419227780262252</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>43603.166666666664</v>
       </c>
@@ -12910,8 +14182,12 @@
       <c r="L316">
         <v>73.900000000000006</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N316">
+        <f t="shared" si="4"/>
+        <v>0.34819719829755691</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>43603.25</v>
       </c>
@@ -12948,8 +14224,12 @@
       <c r="L317">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N317">
+        <f t="shared" si="4"/>
+        <v>0.41499131865228267</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>43603.333333333336</v>
       </c>
@@ -12986,8 +14266,12 @@
       <c r="L318">
         <v>45.1</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N318">
+        <f t="shared" si="4"/>
+        <v>3.6109936092113899</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>43603.416666666664</v>
       </c>
@@ -13024,8 +14308,12 @@
       <c r="L319">
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N319">
+        <f t="shared" si="4"/>
+        <v>11.077920411584202</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>43603.5</v>
       </c>
@@ -13062,8 +14350,12 @@
       <c r="L320">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N320">
+        <f t="shared" si="4"/>
+        <v>2.8874790398488273</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>43603.583333333336</v>
       </c>
@@ -13100,8 +14392,12 @@
       <c r="L321">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N321">
+        <f t="shared" si="4"/>
+        <v>1.4005957004514538</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>43603.666666666664</v>
       </c>
@@ -13138,8 +14434,12 @@
       <c r="L322">
         <v>24.2</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N322">
+        <f t="shared" si="4"/>
+        <v>1.2181552199362242</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>43603.75</v>
       </c>
@@ -13176,8 +14476,12 @@
       <c r="L323">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N323">
+        <f t="shared" ref="N323:N373" si="5">0.5*0.0765*0.000133*0.35*30429.57*(G323*2.24)^3</f>
+        <v>0.11277570798972246</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>43603.833333333336</v>
       </c>
@@ -13214,8 +14518,12 @@
       <c r="L324">
         <v>48.9</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N324">
+        <f t="shared" si="5"/>
+        <v>5.5491764756570007E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>43603.916666666664</v>
       </c>
@@ -13252,8 +14560,12 @@
       <c r="L325">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N325">
+        <f t="shared" si="5"/>
+        <v>5.1873914831535334E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>43604</v>
       </c>
@@ -13290,8 +14602,12 @@
       <c r="L326">
         <v>67.900000000000006</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N326">
+        <f t="shared" si="5"/>
+        <v>9.0660603145831242E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>43604.083333333336</v>
       </c>
@@ -13328,8 +14644,12 @@
       <c r="L327">
         <v>61.4</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N327">
+        <f t="shared" si="5"/>
+        <v>9.0660603145831242E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>43604.166666666664</v>
       </c>
@@ -13366,8 +14686,12 @@
       <c r="L328">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N328">
+        <f t="shared" si="5"/>
+        <v>8.5625087066027866E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>43604.25</v>
       </c>
@@ -13404,8 +14728,12 @@
       <c r="L329">
         <v>66.2</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N329">
+        <f t="shared" si="5"/>
+        <v>0.17507446255643172</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>43604.333333333336</v>
       </c>
@@ -13442,8 +14770,12 @@
       <c r="L330">
         <v>55.2</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N330">
+        <f t="shared" si="5"/>
+        <v>0.70495093746309279</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>43604.416666666664</v>
       </c>
@@ -13480,8 +14812,12 @@
       <c r="L331">
         <v>44.5</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N331">
+        <f t="shared" si="5"/>
+        <v>2.9393486919384881</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>43604.5</v>
       </c>
@@ -13518,8 +14854,12 @@
       <c r="L332">
         <v>39.4</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N332">
+        <f t="shared" si="5"/>
+        <v>3.8557261456989576</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>43604.583333333336</v>
       </c>
@@ -13556,8 +14896,12 @@
       <c r="L333">
         <v>41.1</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N333">
+        <f t="shared" si="5"/>
+        <v>2.9918358326367986</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>43604.666666666664</v>
       </c>
@@ -13594,8 +14938,12 @@
       <c r="L334">
         <v>47.6</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N334">
+        <f t="shared" si="5"/>
+        <v>3.6109936092113899</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>43604.75</v>
       </c>
@@ -13632,8 +14980,12 @@
       <c r="L335">
         <v>62.3</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N335">
+        <f t="shared" si="5"/>
+        <v>2.3566221343110763</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>43604.833333333336</v>
       </c>
@@ -13670,8 +15022,12 @@
       <c r="L336">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N336">
+        <f t="shared" si="5"/>
+        <v>1.000545901031733</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>43604.916666666664</v>
       </c>
@@ -13708,8 +15064,12 @@
       <c r="L337">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N337">
+        <f t="shared" si="5"/>
+        <v>0.37397947907959983</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>43605</v>
       </c>
@@ -13746,8 +15106,12 @@
       <c r="L338">
         <v>76.599999999999994</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N338">
+        <f t="shared" si="5"/>
+        <v>0.19147749328875519</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>43605.083333333336</v>
       </c>
@@ -13784,8 +15148,12 @@
       <c r="L339">
         <v>77.599999999999994</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N339">
+        <f t="shared" si="5"/>
+        <v>0.30024257013788214</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>43605.166666666664</v>
       </c>
@@ -13822,8 +15190,12 @@
       <c r="L340">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N340">
+        <f t="shared" si="5"/>
+        <v>0.10131623990534246</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>43605.25</v>
       </c>
@@ -13860,8 +15232,12 @@
       <c r="L341">
         <v>75.7</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N341">
+        <f t="shared" si="5"/>
+        <v>3.8973639993640369E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>43605.333333333336</v>
       </c>
@@ -13898,8 +15274,12 @@
       <c r="L342">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N342">
+        <f t="shared" si="5"/>
+        <v>0.28898466884784413</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>43605.416666666664</v>
       </c>
@@ -13936,8 +15316,12 @@
       <c r="L343">
         <v>52.4</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N343">
+        <f t="shared" si="5"/>
+        <v>1.3690045204209844</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>43605.5</v>
       </c>
@@ -13974,8 +15358,12 @@
       <c r="L344">
         <v>45.4</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N344">
+        <f t="shared" si="5"/>
+        <v>1.7436368079704769</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>43605.583333333336</v>
       </c>
@@ -14012,8 +15400,12 @@
       <c r="L345">
         <v>63.6</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N345">
+        <f t="shared" si="5"/>
+        <v>0.72528482516664994</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>43605.666666666664</v>
       </c>
@@ -14050,8 +15442,12 @@
       <c r="L346">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N346">
+        <f t="shared" si="5"/>
+        <v>0.50579502813246535</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>43605.75</v>
       </c>
@@ -14088,8 +15484,12 @@
       <c r="L347">
         <v>62.1</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N347">
+        <f t="shared" si="5"/>
+        <v>0.66543044858329159</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>43605.833333333336</v>
       </c>
@@ -14126,8 +15526,12 @@
       <c r="L348">
         <v>70.900000000000006</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N348">
+        <f t="shared" si="5"/>
+        <v>0.10131623990534246</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>43605.916666666664</v>
       </c>
@@ -14164,8 +15568,12 @@
       <c r="L349">
         <v>58.7</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N349">
+        <f t="shared" si="5"/>
+        <v>3.2636617475143179</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>43606</v>
       </c>
@@ -14202,8 +15610,12 @@
       <c r="L350">
         <v>58.1</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N350">
+        <f t="shared" si="5"/>
+        <v>0.68500069652822293</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>43606.083333333336</v>
       </c>
@@ -14240,8 +15652,12 @@
       <c r="L351">
         <v>60.2</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N351">
+        <f t="shared" si="5"/>
+        <v>2.6372652262740317</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>43606.166666666664</v>
       </c>
@@ -14278,8 +15694,12 @@
       <c r="L352">
         <v>58.2</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N352">
+        <f t="shared" si="5"/>
+        <v>2.3566221343110763</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>43606.25</v>
       </c>
@@ -14316,8 +15736,12 @@
       <c r="L353">
         <v>54.8</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N353">
+        <f t="shared" si="5"/>
+        <v>5.4013464143454932</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>43606.333333333336</v>
       </c>
@@ -14354,8 +15778,12 @@
       <c r="L354">
         <v>47.7</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N354">
+        <f t="shared" si="5"/>
+        <v>6.6626947797677989</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43606.416666666664</v>
       </c>
@@ -14392,8 +15820,12 @@
       <c r="L355">
         <v>37.6</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N355">
+        <f t="shared" si="5"/>
+        <v>12.390217676851318</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43606.5</v>
       </c>
@@ -14430,8 +15862,12 @@
       <c r="L356">
         <v>31.6</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N356">
+        <f t="shared" si="5"/>
+        <v>11.853533603171392</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43606.583333333336</v>
       </c>
@@ -14468,8 +15904,12 @@
       <c r="L357">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N357">
+        <f t="shared" si="5"/>
+        <v>8.7379552456285356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43606.666666666664</v>
       </c>
@@ -14506,8 +15946,12 @@
       <c r="L358">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N358">
+        <f t="shared" si="5"/>
+        <v>12.803191500670803</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43606.75</v>
       </c>
@@ -14544,8 +15988,12 @@
       <c r="L359">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N359">
+        <f t="shared" si="5"/>
+        <v>6.5730633243030452</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43606.833333333336</v>
       </c>
@@ -14582,8 +16030,12 @@
       <c r="L360">
         <v>44.9</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N360">
+        <f t="shared" si="5"/>
+        <v>0.64623653984954843</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43606.916666666664</v>
       </c>
@@ -14620,8 +16072,12 @@
       <c r="L361">
         <v>55</v>
       </c>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N361">
+        <f t="shared" si="5"/>
+        <v>0.50579502813246535</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43607</v>
       </c>
@@ -14658,8 +16114,12 @@
       <c r="L362">
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N362">
+        <f t="shared" si="5"/>
+        <v>5.9274034725327815E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43607.083333333336</v>
       </c>
@@ -14696,8 +16156,12 @@
       <c r="L363">
         <v>71.099999999999994</v>
       </c>
-    </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N363">
+        <f t="shared" si="5"/>
+        <v>5.5491764756570007E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43607.166666666664</v>
       </c>
@@ -14734,8 +16198,12 @@
       <c r="L364">
         <v>72.8</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N364">
+        <f t="shared" si="5"/>
+        <v>0.11881601322561187</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43607.25</v>
       </c>
@@ -14772,8 +16240,12 @@
       <c r="L365">
         <v>61</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N365">
+        <f t="shared" si="5"/>
+        <v>1.4982776484273894</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43607.333333333336</v>
       </c>
@@ -14810,8 +16282,12 @@
       <c r="L366">
         <v>41.1</v>
       </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N366">
+        <f t="shared" si="5"/>
+        <v>5.0942365670481076</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43607.416666666664</v>
       </c>
@@ -14848,8 +16324,12 @@
       <c r="L367">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N367">
+        <f t="shared" si="5"/>
+        <v>5.9680481073411471</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43607.5</v>
       </c>
@@ -14886,8 +16366,12 @@
       <c r="L368">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N368">
+        <f t="shared" si="5"/>
+        <v>5.6396074997047423</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43607.583333333336</v>
       </c>
@@ -14924,8 +16408,12 @@
       <c r="L369">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N369">
+        <f t="shared" si="5"/>
+        <v>3.2080323570915197</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43607.666666666664</v>
       </c>
@@ -14962,8 +16450,12 @@
       <c r="L370">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N370">
+        <f t="shared" si="5"/>
+        <v>1.4005957004514538</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43607.75</v>
       </c>
@@ -15000,8 +16492,12 @@
       <c r="L371">
         <v>32.299999999999997</v>
       </c>
-    </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N371">
+        <f t="shared" si="5"/>
+        <v>0.20004986719798129</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43607.833333333336</v>
       </c>
@@ -15038,8 +16534,12 @@
       <c r="L372">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N372">
+        <f t="shared" si="5"/>
+        <v>0.37397947907959983</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43607.916666666664</v>
       </c>
@@ -15075,6 +16575,10 @@
       </c>
       <c r="L373">
         <v>57.4</v>
+      </c>
+      <c r="N373">
+        <f t="shared" si="5"/>
+        <v>8.0779567481193554E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/1month/windata2h.xlsx
+++ b/Data/1month/windata2h.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronmao/Documents/Programming/APEnviro-LTP/Data/1month/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AF2AE916-DF3C-BC4B-B6CE-32DC7ED6A3C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D22B38C-26E1-C346-BAAA-1FC98ABC5DED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="8040" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="11400" yWindow="8040" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windata2h" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -907,16 +907,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N373"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43577</v>
       </c>
@@ -998,8 +1001,16 @@
         <f>0.5*0.0765*0.000133*0.35*30429.57*(G2*2.24)^3</f>
         <v>6.3224378516558169E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <f>N2*2</f>
+        <v>0.12644875703311634</v>
+      </c>
+      <c r="P2">
+        <f>SUM(O2:O373)</f>
+        <v>942.92450575462203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43577.083333333336</v>
       </c>
@@ -1040,8 +1051,12 @@
         <f t="shared" ref="N3:N66" si="0">0.5*0.0765*0.000133*0.35*30429.57*(G3*2.24)^3</f>
         <v>0.36093487998110341</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="1">N3*2</f>
+        <v>0.72186975996220681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43577.166666666664</v>
       </c>
@@ -1082,8 +1097,12 @@
         <f t="shared" si="0"/>
         <v>0.68500069652822293</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>1.3700013930564459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43577.25</v>
       </c>
@@ -1124,8 +1143,12 @@
         <f t="shared" si="0"/>
         <v>1.5318199463100415</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>3.063639892620083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43577.333333333336</v>
       </c>
@@ -1166,8 +1189,12 @@
         <f t="shared" si="0"/>
         <v>1.4326691792768453</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>2.8653383585536907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43577.416666666664</v>
       </c>
@@ -1208,8 +1235,12 @@
         <f t="shared" si="0"/>
         <v>5.88477422690036</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>11.76954845380072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43577.5</v>
       </c>
@@ -1250,8 +1281,12 @@
         <f t="shared" si="0"/>
         <v>7.60422484643916</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>15.20844969287832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43577.583333333336</v>
       </c>
@@ -1292,8 +1327,12 @@
         <f t="shared" si="0"/>
         <v>2.8874790398488273</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>5.7749580796976545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43577.666666666664</v>
       </c>
@@ -1334,8 +1373,12 @@
         <f t="shared" si="0"/>
         <v>0.17507446255643172</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0.35014892511286344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43577.75</v>
       </c>
@@ -1376,8 +1419,12 @@
         <f t="shared" si="0"/>
         <v>1.8141620453914684E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>3.6283240907829369E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43577.833333333336</v>
       </c>
@@ -1418,8 +1465,12 @@
         <f t="shared" si="0"/>
         <v>1.8141620453914684E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>3.6283240907829369E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43577.916666666664</v>
       </c>
@@ -1460,8 +1511,12 @@
         <f t="shared" si="0"/>
         <v>0.40100404463643996</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.80200808927287992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43578</v>
       </c>
@@ -1502,8 +1557,12 @@
         <f t="shared" si="0"/>
         <v>0.5387715992720844</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>1.0775431985441688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43578.083333333336</v>
       </c>
@@ -1544,8 +1603,12 @@
         <f t="shared" si="0"/>
         <v>0.92615679258324668</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>1.8523135851664934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43578.166666666664</v>
       </c>
@@ -1586,8 +1649,12 @@
         <f t="shared" si="0"/>
         <v>2.0966301998397516</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>4.1932603996795033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43578.25</v>
       </c>
@@ -1628,8 +1695,12 @@
         <f t="shared" si="0"/>
         <v>2.5413742388484297</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>5.0827484776968594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43578.333333333336</v>
       </c>
@@ -1670,8 +1741,12 @@
         <f t="shared" si="0"/>
         <v>3.0449441157225081</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>6.0898882314450162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43578.416666666664</v>
       </c>
@@ -1712,8 +1787,12 @@
         <f t="shared" si="0"/>
         <v>2.0552505465396287</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>4.1105010930792574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43578.5</v>
       </c>
@@ -1754,8 +1833,12 @@
         <f t="shared" si="0"/>
         <v>2.0552505465396287</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>4.1105010930792574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43578.583333333336</v>
       </c>
@@ -1796,8 +1879,12 @@
         <f t="shared" si="0"/>
         <v>1.3367958517818648E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>2.6735917035637297E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43578.666666666664</v>
       </c>
@@ -1838,8 +1925,12 @@
         <f t="shared" si="0"/>
         <v>0.42930012519807281</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>0.85860025039614563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43578.75</v>
       </c>
@@ -1880,8 +1971,12 @@
         <f t="shared" si="0"/>
         <v>0.72528482516664994</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>1.4505696503332999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43578.833333333336</v>
       </c>
@@ -1922,8 +2017,12 @@
         <f t="shared" si="0"/>
         <v>0.23689700795946866</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0.47379401591893733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43578.916666666664</v>
       </c>
@@ -1964,8 +2063,12 @@
         <f t="shared" si="0"/>
         <v>2.1884307819553965E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>4.376861563910793E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43579</v>
       </c>
@@ -2006,8 +2109,12 @@
         <f t="shared" si="0"/>
         <v>4.8416831171474439E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>9.6833662342948879E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43579.083333333336</v>
       </c>
@@ -2048,8 +2155,12 @@
         <f t="shared" si="0"/>
         <v>7.6120390612578845E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.15224078122515769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43579.166666666664</v>
       </c>
@@ -2090,8 +2201,12 @@
         <f t="shared" si="0"/>
         <v>0.28898466884784413</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0.57796933769568826</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43579.25</v>
       </c>
@@ -2132,8 +2247,12 @@
         <f t="shared" si="0"/>
         <v>0.40100404463643996</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0.80200808927287992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43579.333333333336</v>
       </c>
@@ -2174,8 +2293,12 @@
         <f t="shared" si="0"/>
         <v>2.9918358326367986</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>5.9836716652735973</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43579.416666666664</v>
       </c>
@@ -2216,8 +2339,12 @@
         <f t="shared" si="0"/>
         <v>7.4092543406659734</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>14.818508681331947</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43579.5</v>
       </c>
@@ -2258,8 +2385,12 @@
         <f t="shared" si="0"/>
         <v>7.3130314683373019</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>14.626062936674604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43579.583333333336</v>
       </c>
@@ -2300,8 +2431,12 @@
         <f t="shared" si="0"/>
         <v>5.8022786013331995</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>11.604557202666399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43579.666666666664</v>
       </c>
@@ -2342,8 +2477,12 @@
         <f t="shared" si="0"/>
         <v>5.1698923187963874</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>10.339784637592775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43579.75</v>
       </c>
@@ -2384,8 +2523,12 @@
         <f t="shared" si="0"/>
         <v>1.4326691792768453</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>2.8653383585536907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43579.833333333336</v>
       </c>
@@ -2426,8 +2569,12 @@
         <f t="shared" si="0"/>
         <v>2.7855775863804553</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>5.5711551727609105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43579.916666666664</v>
       </c>
@@ -2468,8 +2615,12 @@
         <f t="shared" si="0"/>
         <v>1.8951760636757493</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>3.7903521273514986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43580</v>
       </c>
@@ -2510,8 +2661,12 @@
         <f t="shared" si="0"/>
         <v>1.4326691792768453</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>2.8653383585536907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43580.083333333336</v>
       </c>
@@ -2552,8 +2707,12 @@
         <f t="shared" si="0"/>
         <v>0.57315122145147446</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>1.1463024429029489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43580.166666666664</v>
       </c>
@@ -2594,8 +2753,12 @@
         <f t="shared" si="0"/>
         <v>1.2181552199362242</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>2.4363104398724484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43580.25</v>
       </c>
@@ -2636,8 +2799,12 @@
         <f t="shared" si="0"/>
         <v>1.4326691792768453</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>2.8653383585536907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43580.333333333336</v>
       </c>
@@ -2678,8 +2845,12 @@
         <f t="shared" si="0"/>
         <v>1.7807342325762985</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>3.561468465152597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43580.416666666664</v>
       </c>
@@ -2720,8 +2891,12 @@
         <f t="shared" si="0"/>
         <v>1.6709948147273306</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>3.3419896294546612</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43580.5</v>
       </c>
@@ -2762,8 +2937,12 @@
         <f t="shared" si="0"/>
         <v>1.707058219947071</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>3.4141164398941419</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43580.583333333336</v>
       </c>
@@ -2804,8 +2983,12 @@
         <f t="shared" si="0"/>
         <v>1.30725444162981</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>2.6145088832596199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43580.666666666664</v>
       </c>
@@ -2846,8 +3029,12 @@
         <f t="shared" si="0"/>
         <v>0.36093487998110341</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>0.72186975996220681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43580.75</v>
       </c>
@@ -2888,8 +3075,12 @@
         <f t="shared" si="0"/>
         <v>1.2473897126733284</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>2.4947794253466569</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43580.833333333336</v>
       </c>
@@ -2930,8 +3121,12 @@
         <f t="shared" si="0"/>
         <v>0.38733464937179551</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>0.77466929874359103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43580.916666666664</v>
       </c>
@@ -2972,8 +3167,12 @@
         <f t="shared" si="0"/>
         <v>0.13153603497853622</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>0.26307206995707244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43581</v>
       </c>
@@ -3014,8 +3213,12 @@
         <f t="shared" si="0"/>
         <v>0.13153603497853622</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>0.26307206995707244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43581.083333333336</v>
       </c>
@@ -3056,8 +3259,12 @@
         <f t="shared" si="0"/>
         <v>0.33576278025021083</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>0.67152556050042167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43581.166666666664</v>
       </c>
@@ -3098,8 +3305,12 @@
         <f t="shared" si="0"/>
         <v>0.13153603497853622</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>0.26307206995707244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43581.25</v>
       </c>
@@ -3140,8 +3351,12 @@
         <f t="shared" si="0"/>
         <v>0.66543044858329159</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53">
+        <f t="shared" si="1"/>
+        <v>1.3308608971665832</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43581.333333333336</v>
       </c>
@@ -3182,8 +3397,12 @@
         <f t="shared" si="0"/>
         <v>1.6709948147273306</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>3.3419896294546612</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43581.416666666664</v>
       </c>
@@ -3224,8 +3443,12 @@
         <f t="shared" si="0"/>
         <v>1.000545901031733</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>2.001091802063466</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43581.5</v>
       </c>
@@ -3266,8 +3489,12 @@
         <f t="shared" si="0"/>
         <v>1.2770882353116078</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>2.5541764706232155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43581.583333333336</v>
       </c>
@@ -3308,8 +3535,12 @@
         <f t="shared" si="0"/>
         <v>1.4982776484273894</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>2.9965552968547788</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43581.666666666664</v>
       </c>
@@ -3350,8 +3581,12 @@
         <f t="shared" si="0"/>
         <v>1.2770882353116078</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>2.5541764706232155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43581.75</v>
       </c>
@@ -3392,8 +3627,12 @@
         <f t="shared" si="0"/>
         <v>0.70495093746309279</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>1.4099018749261856</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43581.833333333336</v>
       </c>
@@ -3434,8 +3673,12 @@
         <f t="shared" si="0"/>
         <v>0.50579502813246535</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <f t="shared" si="1"/>
+        <v>1.0115900562649307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43581.916666666664</v>
       </c>
@@ -3476,8 +3719,12 @@
         <f t="shared" si="0"/>
         <v>0.23689700795946866</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <f t="shared" si="1"/>
+        <v>0.47379401591893733</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43582</v>
       </c>
@@ -3518,8 +3765,12 @@
         <f t="shared" si="0"/>
         <v>2.1810483219922268</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <f t="shared" si="1"/>
+        <v>4.3620966439844535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43582.083333333336</v>
       </c>
@@ -3560,8 +3811,12 @@
         <f t="shared" si="0"/>
         <v>3.3199305492182614</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>6.6398610984365227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43582.166666666664</v>
       </c>
@@ -3602,8 +3857,12 @@
         <f t="shared" si="0"/>
         <v>2.4943129595929836</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64">
+        <f t="shared" si="1"/>
+        <v>4.9886259191859672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43582.25</v>
       </c>
@@ -3644,8 +3903,12 @@
         <f t="shared" si="0"/>
         <v>0.59087631112795702</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <f t="shared" si="1"/>
+        <v>1.181752622255914</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43582.333333333336</v>
       </c>
@@ -3686,8 +3949,12 @@
         <f t="shared" si="0"/>
         <v>0.85554934514039349</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>1.711098690280787</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43582.416666666664</v>
       </c>
@@ -3725,11 +3992,15 @@
         <v>44.2</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="1">0.5*0.0765*0.000133*0.35*30429.57*(G67*2.24)^3</f>
+        <f t="shared" ref="N67:N130" si="2">0.5*0.0765*0.000133*0.35*30429.57*(G67*2.24)^3</f>
         <v>3.6123083605980516E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <f t="shared" ref="O67:O130" si="3">N67*2</f>
+        <v>7.2246167211961032E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43582.5</v>
       </c>
@@ -3767,11 +4038,15 @@
         <v>45</v>
       </c>
       <c r="N68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15963602941395097</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68">
+        <f t="shared" si="3"/>
+        <v>0.31927205882790194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43582.583333333336</v>
       </c>
@@ -3809,11 +4084,15 @@
         <v>52.2</v>
       </c>
       <c r="N69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0521038964343035</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69">
+        <f t="shared" si="3"/>
+        <v>12.104207792868607</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43582.666666666664</v>
       </c>
@@ -3851,11 +4130,15 @@
         <v>47</v>
       </c>
       <c r="N70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3089992534155108</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70">
+        <f t="shared" si="3"/>
+        <v>12.617998506831022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43582.75</v>
       </c>
@@ -3893,11 +4176,15 @@
         <v>51.6</v>
       </c>
       <c r="N71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3199305492182614</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71">
+        <f t="shared" si="3"/>
+        <v>6.6398610984365227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43582.833333333336</v>
       </c>
@@ -3935,11 +4222,15 @@
         <v>56.9</v>
       </c>
       <c r="N72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55578420209243329</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72">
+        <f t="shared" si="3"/>
+        <v>1.1115684041848666</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43582.916666666664</v>
       </c>
@@ -3977,11 +4268,15 @@
         <v>61.2</v>
       </c>
       <c r="N73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17507446255643172</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73">
+        <f t="shared" si="3"/>
+        <v>0.35014892511286344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43583</v>
       </c>
@@ -4019,11 +4314,15 @@
         <v>71</v>
       </c>
       <c r="N74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3934686661094398E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74">
+        <f t="shared" si="3"/>
+        <v>4.7869373322188796E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43583.083333333336</v>
       </c>
@@ -4061,11 +4360,15 @@
         <v>75.900000000000006</v>
       </c>
       <c r="N75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5625087066027866E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75">
+        <f t="shared" si="3"/>
+        <v>0.17125017413205573</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43583.166666666664</v>
       </c>
@@ -4103,11 +4406,15 @@
         <v>77</v>
       </c>
       <c r="N76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0779567481193554E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76">
+        <f t="shared" si="3"/>
+        <v>0.16155913496238711</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43583.25</v>
       </c>
@@ -4145,11 +4452,15 @@
         <v>73.599999999999994</v>
       </c>
       <c r="N77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5491764756570007E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77">
+        <f t="shared" si="3"/>
+        <v>0.11098352951314001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43583.333333333336</v>
       </c>
@@ -4187,11 +4498,15 @@
         <v>60.9</v>
       </c>
       <c r="N78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0660603145831242E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78">
+        <f t="shared" si="3"/>
+        <v>0.18132120629166248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43583.416666666664</v>
       </c>
@@ -4229,11 +4544,15 @@
         <v>59.5</v>
       </c>
       <c r="N79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20004986719798129</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79">
+        <f t="shared" si="3"/>
+        <v>0.40009973439596258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43583.5</v>
       </c>
@@ -4271,11 +4590,15 @@
         <v>64.7</v>
       </c>
       <c r="N80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76711815599482347</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80">
+        <f t="shared" si="3"/>
+        <v>1.5342363119896469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43583.583333333336</v>
       </c>
@@ -4313,11 +4636,15 @@
         <v>72.599999999999994</v>
       </c>
       <c r="N81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3690045204209844</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81">
+        <f t="shared" si="3"/>
+        <v>2.7380090408419688</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43583.666666666664</v>
       </c>
@@ -4355,11 +4682,15 @@
         <v>76.8</v>
       </c>
       <c r="N82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.000545901031733</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82">
+        <f t="shared" si="3"/>
+        <v>2.001091802063466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43583.75</v>
       </c>
@@ -4397,11 +4728,15 @@
         <v>74.900000000000006</v>
       </c>
       <c r="N83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55578420209243329</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83">
+        <f t="shared" si="3"/>
+        <v>1.1115684041848666</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43583.833333333336</v>
       </c>
@@ -4439,11 +4774,15 @@
         <v>78.5</v>
       </c>
       <c r="N84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27801176230025965</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84">
+        <f t="shared" si="3"/>
+        <v>0.55602352460051929</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43583.916666666664</v>
       </c>
@@ -4481,11 +4820,15 @@
         <v>81.900000000000006</v>
       </c>
       <c r="N85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34819719829755691</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85">
+        <f t="shared" si="3"/>
+        <v>0.69639439659511382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43584</v>
       </c>
@@ -4523,11 +4866,15 @@
         <v>81</v>
       </c>
       <c r="N86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5116859997637926E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86">
+        <f t="shared" si="3"/>
+        <v>9.0233719995275852E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43584.083333333336</v>
       </c>
@@ -4565,11 +4912,15 @@
         <v>81.2</v>
       </c>
       <c r="N87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9274034725327815E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87">
+        <f t="shared" si="3"/>
+        <v>0.11854806945065563</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43584.166666666664</v>
       </c>
@@ -4607,11 +4958,15 @@
         <v>81.900000000000006</v>
       </c>
       <c r="N88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4852001653201484E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88">
+        <f t="shared" si="3"/>
+        <v>2.9704003306402969E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43584.25</v>
       </c>
@@ -4649,11 +5004,15 @@
         <v>78.900000000000006</v>
       </c>
       <c r="N89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13153603497853622</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O89">
+        <f t="shared" si="3"/>
+        <v>0.26307206995707244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43584.333333333336</v>
       </c>
@@ -4691,11 +5050,15 @@
         <v>55.5</v>
       </c>
       <c r="N90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5318199463100415</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90">
+        <f t="shared" si="3"/>
+        <v>3.063639892620083</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43584.416666666664</v>
       </c>
@@ -4733,11 +5096,15 @@
         <v>32.799999999999997</v>
       </c>
       <c r="N91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0552505465396287</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91">
+        <f t="shared" si="3"/>
+        <v>4.1105010930792574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43584.5</v>
       </c>
@@ -4775,11 +5142,15 @@
         <v>25.1</v>
       </c>
       <c r="N92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48982375225569658</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O92">
+        <f t="shared" si="3"/>
+        <v>0.97964750451139315</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43584.583333333336</v>
       </c>
@@ -4817,11 +5188,15 @@
         <v>24</v>
       </c>
       <c r="N93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3153603497853623E-4</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93">
+        <f t="shared" si="3"/>
+        <v>2.6307206995707246E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43584.666666666664</v>
       </c>
@@ -4859,11 +5234,15 @@
         <v>24.9</v>
       </c>
       <c r="N94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6396074997047407E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94">
+        <f t="shared" si="3"/>
+        <v>1.1279214999409481E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43584.75</v>
       </c>
@@ -4901,11 +5280,15 @@
         <v>32.799999999999997</v>
       </c>
       <c r="N95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8973639993640369E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95">
+        <f t="shared" si="3"/>
+        <v>7.7947279987280738E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43584.833333333336</v>
       </c>
@@ -4943,11 +5326,15 @@
         <v>38.200000000000003</v>
       </c>
       <c r="N96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5889769499352934E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O96">
+        <f t="shared" si="3"/>
+        <v>0.19177953899870587</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43584.916666666664</v>
       </c>
@@ -4985,11 +5372,15 @@
         <v>41</v>
       </c>
       <c r="N97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42930012519807281</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O97">
+        <f t="shared" si="3"/>
+        <v>0.85860025039614563</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43585</v>
       </c>
@@ -5027,11 +5418,15 @@
         <v>71</v>
       </c>
       <c r="N98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3367958517818648E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O98">
+        <f t="shared" si="3"/>
+        <v>2.6735917035637297E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43585.083333333336</v>
       </c>
@@ -5069,11 +5464,15 @@
         <v>76.900000000000006</v>
       </c>
       <c r="N99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0779567481193554E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O99">
+        <f t="shared" si="3"/>
+        <v>0.16155913496238711</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43585.166666666664</v>
       </c>
@@ -5111,11 +5510,15 @@
         <v>78.099999999999994</v>
       </c>
       <c r="N100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8416831171474439E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O100">
+        <f t="shared" si="3"/>
+        <v>9.6833662342948879E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43585.25</v>
       </c>
@@ -5153,11 +5556,15 @@
         <v>77.099999999999994</v>
       </c>
       <c r="N101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5889769499352934E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O101">
+        <f t="shared" si="3"/>
+        <v>0.19177953899870587</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43585.333333333336</v>
       </c>
@@ -5195,11 +5602,15 @@
         <v>75.2</v>
       </c>
       <c r="N102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2467664733247332</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O102">
+        <f t="shared" si="3"/>
+        <v>0.4935329466494664</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43585.416666666664</v>
       </c>
@@ -5237,11 +5648,15 @@
         <v>71.7</v>
       </c>
       <c r="N103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52210975921167824</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O103">
+        <f t="shared" si="3"/>
+        <v>1.0442195184233565</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43585.5</v>
       </c>
@@ -5279,11 +5694,15 @@
         <v>69.400000000000006</v>
       </c>
       <c r="N104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5150488265723556E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104">
+        <f t="shared" si="3"/>
+        <v>1.9030097653144711E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43585.583333333336</v>
       </c>
@@ -5321,11 +5740,15 @@
         <v>66</v>
       </c>
       <c r="N105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.950528105804895</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105">
+        <f t="shared" si="3"/>
+        <v>1.90105621160979</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43585.666666666664</v>
       </c>
@@ -5363,11 +5786,15 @@
         <v>55.8</v>
       </c>
       <c r="N106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7355384774442455</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106">
+        <f t="shared" si="3"/>
+        <v>5.471076954888491</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43585.75</v>
       </c>
@@ -5405,11 +5832,15 @@
         <v>58.9</v>
       </c>
       <c r="N107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.59087631112795702</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O107">
+        <f t="shared" si="3"/>
+        <v>1.181752622255914</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43585.833333333336</v>
       </c>
@@ -5447,11 +5878,15 @@
         <v>70.099999999999994</v>
       </c>
       <c r="N108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11881601322561187</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O108">
+        <f t="shared" si="3"/>
+        <v>0.23763202645122375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43585.916666666664</v>
       </c>
@@ -5489,11 +5924,15 @@
         <v>75.900000000000006</v>
       </c>
       <c r="N109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11881601322561187</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O109">
+        <f t="shared" si="3"/>
+        <v>0.23763202645122375</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43586</v>
       </c>
@@ -5531,11 +5970,15 @@
         <v>75.8</v>
       </c>
       <c r="N110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5491764756570007E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O110">
+        <f t="shared" si="3"/>
+        <v>0.11098352951314001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43586.083333333336</v>
       </c>
@@ -5573,11 +6016,15 @@
         <v>76.8</v>
       </c>
       <c r="N111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6120390612578845E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O111">
+        <f t="shared" si="3"/>
+        <v>0.15224078122515769</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43586.166666666664</v>
       </c>
@@ -5615,11 +6062,15 @@
         <v>76.3</v>
       </c>
       <c r="N112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0660603145831242E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O112">
+        <f t="shared" si="3"/>
+        <v>0.18132120629166248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43586.25</v>
       </c>
@@ -5657,11 +6108,15 @@
         <v>75.599999999999994</v>
       </c>
       <c r="N113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5625087066027866E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O113">
+        <f t="shared" si="3"/>
+        <v>0.17125017413205573</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43586.333333333336</v>
       </c>
@@ -5699,11 +6154,15 @@
         <v>71.599999999999994</v>
       </c>
       <c r="N114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18315357633448839</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O114">
+        <f t="shared" si="3"/>
+        <v>0.36630715266897679</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43586.416666666664</v>
       </c>
@@ -5741,11 +6200,15 @@
         <v>57.2</v>
       </c>
       <c r="N115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32362797206031613</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O115">
+        <f t="shared" si="3"/>
+        <v>0.64725594412063225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43586.5</v>
       </c>
@@ -5783,11 +6246,15 @@
         <v>47.9</v>
       </c>
       <c r="N116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8183541475432845</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O116">
+        <f t="shared" si="3"/>
+        <v>3.636708295086569</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43586.583333333336</v>
       </c>
@@ -5825,11 +6292,15 @@
         <v>45.2</v>
       </c>
       <c r="N117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87867106602974521</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O117">
+        <f t="shared" si="3"/>
+        <v>1.7573421320594904</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43586.666666666664</v>
       </c>
@@ -5867,11 +6338,15 @@
         <v>49.8</v>
       </c>
       <c r="N118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85554934514039349</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O118">
+        <f t="shared" si="3"/>
+        <v>1.711098690280787</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43586.75</v>
       </c>
@@ -5909,11 +6384,15 @@
         <v>62.9</v>
       </c>
       <c r="N119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4652286106759072</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O119">
+        <f t="shared" si="3"/>
+        <v>2.9304572213518143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43586.833333333336</v>
       </c>
@@ -5951,11 +6430,15 @@
         <v>71.5</v>
       </c>
       <c r="N120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57315122145147446</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O120">
+        <f t="shared" si="3"/>
+        <v>1.1463024429029489</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43586.916666666664</v>
       </c>
@@ -5993,11 +6476,15 @@
         <v>77.099999999999994</v>
       </c>
       <c r="N121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.48982375225569658</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O121">
+        <f t="shared" si="3"/>
+        <v>0.97964750451139315</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43587</v>
       </c>
@@ -6035,11 +6522,15 @@
         <v>78.2</v>
       </c>
       <c r="N122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4393411805255969E-4</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O122">
+        <f t="shared" si="3"/>
+        <v>8.8786823610511939E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43587.083333333336</v>
       </c>
@@ -6077,11 +6568,15 @@
         <v>77.400000000000006</v>
       </c>
       <c r="N123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.670994814727331E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O123">
+        <f t="shared" si="3"/>
+        <v>3.3419896294546621E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43587.166666666664</v>
       </c>
@@ -6119,11 +6614,15 @@
         <v>76.8</v>
       </c>
       <c r="N124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1873914831535334E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O124">
+        <f t="shared" si="3"/>
+        <v>0.10374782966307067</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43587.25</v>
       </c>
@@ -6161,11 +6660,15 @@
         <v>75.5</v>
       </c>
       <c r="N125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12506823762896663</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O125">
+        <f t="shared" si="3"/>
+        <v>0.25013647525793326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43587.333333333336</v>
       </c>
@@ -6203,11 +6706,15 @@
         <v>65.400000000000006</v>
       </c>
       <c r="N126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17507446255643172</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O126">
+        <f t="shared" si="3"/>
+        <v>0.35014892511286344</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43587.416666666664</v>
       </c>
@@ -6245,11 +6752,15 @@
         <v>50.5</v>
       </c>
       <c r="N127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30024257013788214</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O127">
+        <f t="shared" si="3"/>
+        <v>0.60048514027576427</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43587.5</v>
       </c>
@@ -6287,11 +6798,15 @@
         <v>43.5</v>
       </c>
       <c r="N128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.19147749328875519</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O128">
+        <f t="shared" si="3"/>
+        <v>0.38295498657751037</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43587.583333333336</v>
       </c>
@@ -6329,11 +6844,15 @@
         <v>43.1</v>
       </c>
       <c r="N129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0896312490063076E-4</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O129">
+        <f t="shared" si="3"/>
+        <v>1.2179262498012615E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43587.666666666664</v>
       </c>
@@ -6371,11 +6890,15 @@
         <v>57</v>
       </c>
       <c r="N130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12506823762896663</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O130">
+        <f t="shared" si="3"/>
+        <v>0.25013647525793326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43587.75</v>
       </c>
@@ -6413,11 +6936,15 @@
         <v>71.900000000000006</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N194" si="2">0.5*0.0765*0.000133*0.35*30429.57*(G131*2.24)^3</f>
+        <f t="shared" ref="N131:N194" si="4">0.5*0.0765*0.000133*0.35*30429.57*(G131*2.24)^3</f>
         <v>1.0788153225120864</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O131">
+        <f t="shared" ref="O131:O194" si="5">N131*2</f>
+        <v>2.1576306450241729</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43587.833333333336</v>
       </c>
@@ -6455,11 +6982,15 @@
         <v>72.2</v>
       </c>
       <c r="N132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.81052991924273965</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132">
+        <f t="shared" si="5"/>
+        <v>1.6210598384854793</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43587.916666666664</v>
       </c>
@@ -6497,11 +7028,15 @@
         <v>72.099999999999994</v>
       </c>
       <c r="N133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17507446255643172</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O133">
+        <f t="shared" si="5"/>
+        <v>0.35014892511286344</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43588</v>
       </c>
@@ -6539,11 +7074,15 @@
         <v>73.2</v>
       </c>
       <c r="N134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.76711815599482347</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O134">
+        <f t="shared" si="5"/>
+        <v>1.5342363119896469</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43588.083333333336</v>
       </c>
@@ -6581,11 +7120,15 @@
         <v>75.5</v>
       </c>
       <c r="N135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.78862490667693885</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O135">
+        <f t="shared" si="5"/>
+        <v>1.5772498133538777</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43588.166666666664</v>
       </c>
@@ -6623,11 +7166,15 @@
         <v>74.400000000000006</v>
       </c>
       <c r="N136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40100404463643996</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O136">
+        <f t="shared" si="5"/>
+        <v>0.80200808927287992</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43588.25</v>
       </c>
@@ -6665,11 +7212,15 @@
         <v>74.400000000000006</v>
       </c>
       <c r="N137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.60896312490063076</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O137">
+        <f t="shared" si="5"/>
+        <v>1.2179262498012615</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43588.333333333336</v>
       </c>
@@ -6707,11 +7258,15 @@
         <v>71.900000000000006</v>
       </c>
       <c r="N138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.72528482516664994</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O138">
+        <f t="shared" si="5"/>
+        <v>1.4505696503332999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43588.416666666664</v>
       </c>
@@ -6749,11 +7304,15 @@
         <v>65.7</v>
       </c>
       <c r="N139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5658591581026118</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O139">
+        <f t="shared" si="5"/>
+        <v>3.1317183162052236</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43588.5</v>
       </c>
@@ -6791,11 +7350,15 @@
         <v>71.8</v>
       </c>
       <c r="N140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.90220566391777968</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O140">
+        <f t="shared" si="5"/>
+        <v>1.8044113278355594</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43588.583333333336</v>
       </c>
@@ -6833,11 +7396,15 @@
         <v>71.2</v>
       </c>
       <c r="N141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.133199383344462</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O141">
+        <f t="shared" si="5"/>
+        <v>2.266398766688924</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43588.666666666664</v>
       </c>
@@ -6875,11 +7442,15 @@
         <v>70.900000000000006</v>
       </c>
       <c r="N142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.48982375225569658</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O142">
+        <f t="shared" si="5"/>
+        <v>0.97964750451139315</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43588.75</v>
       </c>
@@ -6917,11 +7488,15 @@
         <v>75.099999999999994</v>
       </c>
       <c r="N143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20887435184091632</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O143">
+        <f t="shared" si="5"/>
+        <v>0.41774870368183264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43588.833333333336</v>
       </c>
@@ -6959,11 +7534,15 @@
         <v>75.599999999999994</v>
       </c>
       <c r="N144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5491764756570007E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O144">
+        <f t="shared" si="5"/>
+        <v>0.11098352951314001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43588.916666666664</v>
       </c>
@@ -7001,11 +7580,15 @@
         <v>77</v>
       </c>
       <c r="N145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5491764756570007E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O145">
+        <f t="shared" si="5"/>
+        <v>0.11098352951314001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43589</v>
       </c>
@@ -7043,11 +7626,15 @@
         <v>78.099999999999994</v>
       </c>
       <c r="N146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5116859997637926E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O146">
+        <f t="shared" si="5"/>
+        <v>9.0233719995275852E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43589.083333333336</v>
       </c>
@@ -7085,11 +7672,15 @@
         <v>79.5</v>
       </c>
       <c r="N147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0660603145831242E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O147">
+        <f t="shared" si="5"/>
+        <v>0.18132120629166248</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43589.166666666664</v>
       </c>
@@ -7127,11 +7718,15 @@
         <v>78.5</v>
       </c>
       <c r="N148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1986221187419117E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O148">
+        <f t="shared" si="5"/>
+        <v>2.3972442374838233E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43589.25</v>
       </c>
@@ -7169,11 +7764,15 @@
         <v>77.8</v>
       </c>
       <c r="N149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11277570798972246</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O149">
+        <f t="shared" si="5"/>
+        <v>0.22555141597944492</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43589.333333333336</v>
       </c>
@@ -7211,11 +7810,15 @@
         <v>71.3</v>
       </c>
       <c r="N150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.48982375225569658</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O150">
+        <f t="shared" si="5"/>
+        <v>0.97964750451139315</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43589.416666666664</v>
       </c>
@@ -7253,11 +7856,15 @@
         <v>65.5</v>
       </c>
       <c r="N151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.74600601341764339</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O151">
+        <f t="shared" si="5"/>
+        <v>1.4920120268352868</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43589.5</v>
       </c>
@@ -7295,11 +7902,15 @@
         <v>59</v>
       </c>
       <c r="N152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6709948147273306</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O152">
+        <f t="shared" si="5"/>
+        <v>3.3419896294546612</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43589.583333333336</v>
       </c>
@@ -7337,11 +7948,15 @@
         <v>50</v>
       </c>
       <c r="N153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3378919854066857</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O153">
+        <f t="shared" si="5"/>
+        <v>2.6757839708133715</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43589.666666666664</v>
       </c>
@@ -7379,11 +7994,15 @@
         <v>57.5</v>
       </c>
       <c r="N154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.70495093746309279</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O154">
+        <f t="shared" si="5"/>
+        <v>1.4099018749261856</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43589.75</v>
       </c>
@@ -7421,11 +8040,15 @@
         <v>60.8</v>
       </c>
       <c r="N155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1178911994912299E-4</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O155">
+        <f t="shared" si="5"/>
+        <v>6.2357823989824597E-4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43589.833333333336</v>
       </c>
@@ -7463,11 +8086,15 @@
         <v>67.7</v>
       </c>
       <c r="N156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17507446255643172</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O156">
+        <f t="shared" si="5"/>
+        <v>0.35014892511286344</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43589.916666666664</v>
       </c>
@@ -7505,11 +8132,15 @@
         <v>69.900000000000006</v>
       </c>
       <c r="N157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10131623990534246</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O157">
+        <f t="shared" si="5"/>
+        <v>0.20263247981068491</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43590</v>
       </c>
@@ -7547,11 +8178,15 @@
         <v>75.5</v>
       </c>
       <c r="N158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3934686661094398E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O158">
+        <f t="shared" si="5"/>
+        <v>4.7869373322188796E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43590.083333333336</v>
       </c>
@@ -7589,11 +8224,15 @@
         <v>76.3</v>
       </c>
       <c r="N159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.4393411805255969E-4</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O159">
+        <f t="shared" si="5"/>
+        <v>8.8786823610511939E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43590.166666666664</v>
       </c>
@@ -7631,11 +8270,15 @@
         <v>78.599999999999994</v>
       </c>
       <c r="N160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.19147749328875519</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O160">
+        <f t="shared" si="5"/>
+        <v>0.38295498657751037</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43590.25</v>
       </c>
@@ -7673,11 +8316,15 @@
         <v>79.599999999999994</v>
       </c>
       <c r="N161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13153603497853622</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O161">
+        <f t="shared" si="5"/>
+        <v>0.26307206995707244</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43590.333333333336</v>
       </c>
@@ -7715,11 +8362,15 @@
         <v>76.7</v>
       </c>
       <c r="N162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10131623990534246</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O162">
+        <f t="shared" si="5"/>
+        <v>0.20263247981068491</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43590.416666666664</v>
       </c>
@@ -7757,11 +8408,15 @@
         <v>73.099999999999994</v>
       </c>
       <c r="N163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1768780736934257E-3</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O163">
+        <f t="shared" si="5"/>
+        <v>8.3537561473868514E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>43590.5</v>
       </c>
@@ -7799,11 +8454,15 @@
         <v>71.5</v>
       </c>
       <c r="N164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.78862490667693885</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O164">
+        <f t="shared" si="5"/>
+        <v>1.5772498133538777</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>43590.583333333336</v>
       </c>
@@ -7841,11 +8500,15 @@
         <v>69.7</v>
       </c>
       <c r="N165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.97532325736147352</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O165">
+        <f t="shared" si="5"/>
+        <v>1.950646514722947</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>43590.666666666664</v>
       </c>
@@ -7883,11 +8546,15 @@
         <v>70.3</v>
       </c>
       <c r="N166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.5387715992720844</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O166">
+        <f t="shared" si="5"/>
+        <v>1.0775431985441688</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>43590.75</v>
       </c>
@@ -7925,11 +8592,15 @@
         <v>76</v>
       </c>
       <c r="N167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.21795460099630962</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O167">
+        <f t="shared" si="5"/>
+        <v>0.43590920199261923</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43590.833333333336</v>
       </c>
@@ -7967,11 +8638,15 @@
         <v>77.8</v>
       </c>
       <c r="N168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20004986719798129</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O168">
+        <f t="shared" si="5"/>
+        <v>0.40009973439596258</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>43590.916666666664</v>
       </c>
@@ -8009,11 +8684,15 @@
         <v>76.400000000000006</v>
       </c>
       <c r="N169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.37397947907959983</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O169">
+        <f t="shared" si="5"/>
+        <v>0.74795895815919966</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>43591</v>
       </c>
@@ -8051,11 +8730,15 @@
         <v>76.900000000000006</v>
       </c>
       <c r="N170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28898466884784413</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O170">
+        <f t="shared" si="5"/>
+        <v>0.57796933769568826</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>43591.083333333336</v>
       </c>
@@ -8093,11 +8776,15 @@
         <v>76.7</v>
       </c>
       <c r="N171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28898466884784413</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O171">
+        <f t="shared" si="5"/>
+        <v>0.57796933769568826</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>43591.166666666664</v>
       </c>
@@ -8135,11 +8822,15 @@
         <v>80.8</v>
       </c>
       <c r="N172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.21795460099630962</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O172">
+        <f t="shared" si="5"/>
+        <v>0.43590920199261923</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>43591.25</v>
       </c>
@@ -8177,11 +8868,15 @@
         <v>77.3</v>
       </c>
       <c r="N173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.31178911994912295</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O173">
+        <f t="shared" si="5"/>
+        <v>0.6235782398982459</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>43591.333333333336</v>
       </c>
@@ -8219,11 +8914,15 @@
         <v>63.7</v>
       </c>
       <c r="N174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.36093487998110341</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O174">
+        <f t="shared" si="5"/>
+        <v>0.72186975996220681</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>43591.416666666664</v>
       </c>
@@ -8261,11 +8960,15 @@
         <v>41.6</v>
       </c>
       <c r="N175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0522882798282898</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O175">
+        <f t="shared" si="5"/>
+        <v>2.1045765596565795</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>43591.5</v>
       </c>
@@ -8303,11 +9006,15 @@
         <v>37.5</v>
       </c>
       <c r="N176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0144189600519158</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O176">
+        <f t="shared" si="5"/>
+        <v>4.0288379201038316</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>43591.583333333336</v>
       </c>
@@ -8348,8 +9055,12 @@
         <f>0.5*0.0765*0.000133*0.35*30429.57*(G177*2.24)^3</f>
         <v>0.20004986719798129</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O177">
+        <f t="shared" si="5"/>
+        <v>0.40009973439596258</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>43591.666666666664</v>
       </c>
@@ -8387,11 +9098,15 @@
         <v>43.1</v>
       </c>
       <c r="N178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5116859997637926E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O178">
+        <f t="shared" si="5"/>
+        <v>9.0233719995275852E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>43591.75</v>
       </c>
@@ -8429,11 +9144,15 @@
         <v>51.3</v>
       </c>
       <c r="N179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.78862490667693885</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O179">
+        <f t="shared" si="5"/>
+        <v>1.5772498133538777</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>43591.833333333336</v>
       </c>
@@ -8471,11 +9190,15 @@
         <v>56.5</v>
       </c>
       <c r="N180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.59087631112795702</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O180">
+        <f t="shared" si="5"/>
+        <v>1.181752622255914</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>43591.916666666664</v>
       </c>
@@ -8513,11 +9236,15 @@
         <v>67.3</v>
       </c>
       <c r="N181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.50579502813246535</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O181">
+        <f t="shared" si="5"/>
+        <v>1.0115900562649307</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>43592</v>
       </c>
@@ -8555,11 +9282,15 @@
         <v>76.900000000000006</v>
       </c>
       <c r="N182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.2467664733247332</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O182">
+        <f t="shared" si="5"/>
+        <v>0.4935329466494664</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>43592.083333333336</v>
       </c>
@@ -8597,11 +9328,15 @@
         <v>76.099999999999994</v>
       </c>
       <c r="N183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.084580916559165E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O183">
+        <f t="shared" si="5"/>
+        <v>6.16916183311833E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>43592.166666666664</v>
       </c>
@@ -8639,11 +9374,15 @@
         <v>72.8</v>
       </c>
       <c r="N184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.5625087066027866E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O184">
+        <f t="shared" si="5"/>
+        <v>0.17125017413205573</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>43592.25</v>
       </c>
@@ -8681,11 +9420,15 @@
         <v>69.099999999999994</v>
       </c>
       <c r="N185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1970347531276354E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O185">
+        <f t="shared" si="5"/>
+        <v>8.3940695062552709E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>43592.333333333336</v>
       </c>
@@ -8723,11 +9466,15 @@
         <v>57.7</v>
       </c>
       <c r="N186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6354429385325064</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O186">
+        <f t="shared" si="5"/>
+        <v>3.2708858770650129</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>43592.416666666664</v>
       </c>
@@ -8765,11 +9512,15 @@
         <v>52</v>
       </c>
       <c r="N187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.8362232225890658</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O187">
+        <f t="shared" si="5"/>
+        <v>5.6724464451781316</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>43592.5</v>
       </c>
@@ -8807,11 +9558,15 @@
         <v>42.2</v>
       </c>
       <c r="N188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.4926099598044598</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O188">
+        <f t="shared" si="5"/>
+        <v>6.9852199196089195</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>43592.583333333336</v>
       </c>
@@ -8849,11 +9604,15 @@
         <v>37.200000000000003</v>
       </c>
       <c r="N189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6711756079559454</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O189">
+        <f t="shared" si="5"/>
+        <v>7.3423512159118909</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>43592.666666666664</v>
       </c>
@@ -8891,11 +9650,15 @@
         <v>40.9</v>
       </c>
       <c r="N190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2677025567393363</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O190">
+        <f t="shared" si="5"/>
+        <v>4.5354051134786726</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>43592.75</v>
       </c>
@@ -8933,11 +9696,15 @@
         <v>75.2</v>
       </c>
       <c r="N191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20887435184091632</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O191">
+        <f t="shared" si="5"/>
+        <v>0.41774870368183264</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>43592.833333333336</v>
       </c>
@@ -8975,11 +9742,15 @@
         <v>76.5</v>
       </c>
       <c r="N192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10694366814254919</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O192">
+        <f t="shared" si="5"/>
+        <v>0.21388733628509837</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43592.916666666664</v>
       </c>
@@ -9017,11 +9788,15 @@
         <v>77.5</v>
       </c>
       <c r="N193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20887435184091632</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O193">
+        <f t="shared" si="5"/>
+        <v>0.41774870368183264</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43593</v>
       </c>
@@ -9059,11 +9834,15 @@
         <v>75.3</v>
       </c>
       <c r="N194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0261996905944217</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O194">
+        <f t="shared" si="5"/>
+        <v>2.0523993811888435</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43593.083333333336</v>
       </c>
@@ -9101,11 +9880,15 @@
         <v>77</v>
       </c>
       <c r="N195">
-        <f t="shared" ref="N195:N258" si="3">0.5*0.0765*0.000133*0.35*30429.57*(G195*2.24)^3</f>
+        <f t="shared" ref="N195:N258" si="6">0.5*0.0765*0.000133*0.35*30429.57*(G195*2.24)^3</f>
         <v>1.5318199463100415</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O195">
+        <f t="shared" ref="O195:O258" si="7">N195*2</f>
+        <v>3.063639892620083</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43593.166666666664</v>
       </c>
@@ -9143,11 +9926,15 @@
         <v>74.900000000000006</v>
       </c>
       <c r="N196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.55578420209243329</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O196">
+        <f t="shared" si="7"/>
+        <v>1.1115684041848666</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43593.25</v>
       </c>
@@ -9185,11 +9972,15 @@
         <v>73.2</v>
       </c>
       <c r="N197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.6354429385325064</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O197">
+        <f t="shared" si="7"/>
+        <v>3.2708858770650129</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43593.333333333336</v>
       </c>
@@ -9227,11 +10018,15 @@
         <v>59.5</v>
       </c>
       <c r="N198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5318199463100415</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O198">
+        <f t="shared" si="7"/>
+        <v>3.063639892620083</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43593.416666666664</v>
       </c>
@@ -9269,11 +10064,15 @@
         <v>45.7</v>
       </c>
       <c r="N199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.2636617475143179</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O199">
+        <f t="shared" si="7"/>
+        <v>6.5273234950286358</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43593.5</v>
       </c>
@@ -9311,11 +10110,15 @@
         <v>32.799999999999997</v>
       </c>
       <c r="N200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.732022594432892</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O200">
+        <f t="shared" si="7"/>
+        <v>7.4640451888657839</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43593.583333333336</v>
       </c>
@@ -9353,11 +10156,15 @@
         <v>27.8</v>
       </c>
       <c r="N201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.6711756079559454</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O201">
+        <f t="shared" si="7"/>
+        <v>7.3423512159118909</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43593.666666666664</v>
       </c>
@@ -9395,11 +10202,15 @@
         <v>26.6</v>
       </c>
       <c r="N202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.3566221343110763</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O202">
+        <f t="shared" si="7"/>
+        <v>4.7132442686221525</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43593.75</v>
       </c>
@@ -9437,11 +10248,15 @@
         <v>32.1</v>
       </c>
       <c r="N203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.20887435184091632</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O203">
+        <f t="shared" si="7"/>
+        <v>0.41774870368183264</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43593.833333333336</v>
       </c>
@@ -9479,11 +10294,15 @@
         <v>50.6</v>
       </c>
       <c r="N204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.0660603145831242E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O204">
+        <f t="shared" si="7"/>
+        <v>0.18132120629166248</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43593.916666666664</v>
       </c>
@@ -9521,11 +10340,15 @@
         <v>60.6</v>
       </c>
       <c r="N205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.11277570798972246</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O205">
+        <f t="shared" si="7"/>
+        <v>0.22555141597944492</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43594</v>
       </c>
@@ -9563,11 +10386,15 @@
         <v>67.400000000000006</v>
       </c>
       <c r="N206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.10694366814254919</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O206">
+        <f t="shared" si="7"/>
+        <v>0.21388733628509837</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43594.083333333336</v>
       </c>
@@ -9605,11 +10432,15 @@
         <v>65.400000000000006</v>
       </c>
       <c r="N207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.13153603497853622</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O207">
+        <f t="shared" si="7"/>
+        <v>0.26307206995707244</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43594.166666666664</v>
       </c>
@@ -9647,11 +10478,15 @@
         <v>45.6</v>
       </c>
       <c r="N208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.15963602941395097</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O208">
+        <f t="shared" si="7"/>
+        <v>0.31927205882790194</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43594.25</v>
       </c>
@@ -9689,11 +10524,15 @@
         <v>37.5</v>
       </c>
       <c r="N209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.610929398011454E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O209">
+        <f t="shared" si="7"/>
+        <v>5.2218587960229081E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43594.333333333336</v>
       </c>
@@ -9731,11 +10570,15 @@
         <v>32.6</v>
       </c>
       <c r="N210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1893811033215442</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O210">
+        <f t="shared" si="7"/>
+        <v>2.3787622066430885</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43594.416666666664</v>
       </c>
@@ -9773,11 +10616,15 @@
         <v>28.5</v>
       </c>
       <c r="N211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.9343853723987259</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O211">
+        <f t="shared" si="7"/>
+        <v>3.8687707447974518</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43594.5</v>
       </c>
@@ -9815,11 +10662,15 @@
         <v>31.3</v>
       </c>
       <c r="N212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.2431764980644822</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O212">
+        <f t="shared" si="7"/>
+        <v>8.4863529961289643</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43594.583333333336</v>
       </c>
@@ -9857,11 +10708,15 @@
         <v>39.299999999999997</v>
       </c>
       <c r="N213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.8951760636757493</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O213">
+        <f t="shared" si="7"/>
+        <v>3.7903521273514986</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43594.666666666664</v>
       </c>
@@ -9899,11 +10754,15 @@
         <v>42.4</v>
       </c>
       <c r="N214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.0552505465396287</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O214">
+        <f t="shared" si="7"/>
+        <v>4.1105010930792574</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43594.75</v>
       </c>
@@ -9941,11 +10800,15 @@
         <v>41.1</v>
       </c>
       <c r="N215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.0966301998397516</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O215">
+        <f t="shared" si="7"/>
+        <v>4.1932603996795033</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43594.833333333336</v>
       </c>
@@ -9983,11 +10846,15 @@
         <v>42.7</v>
       </c>
       <c r="N216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5318199463100415</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O216">
+        <f t="shared" si="7"/>
+        <v>3.063639892620083</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43594.916666666664</v>
       </c>
@@ -10025,11 +10892,15 @@
         <v>48</v>
       </c>
       <c r="N217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1057844724245602</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O217">
+        <f t="shared" si="7"/>
+        <v>2.2115689448491205</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43595</v>
       </c>
@@ -10067,11 +10938,15 @@
         <v>54.2</v>
       </c>
       <c r="N218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.133199383344462</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O218">
+        <f t="shared" si="7"/>
+        <v>2.266398766688924</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43595.083333333336</v>
       </c>
@@ -10109,11 +10984,15 @@
         <v>62.3</v>
       </c>
       <c r="N219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1057844724245602</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O219">
+        <f t="shared" si="7"/>
+        <v>2.2115689448491205</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43595.166666666664</v>
       </c>
@@ -10151,11 +11030,15 @@
         <v>67.5</v>
       </c>
       <c r="N220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.9343853723987259</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O220">
+        <f t="shared" si="7"/>
+        <v>3.8687707447974518</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43595.25</v>
       </c>
@@ -10193,11 +11076,15 @@
         <v>68.900000000000006</v>
       </c>
       <c r="N221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5318199463100415</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O221">
+        <f t="shared" si="7"/>
+        <v>3.063639892620083</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43595.333333333336</v>
       </c>
@@ -10235,11 +11122,15 @@
         <v>70.5</v>
       </c>
       <c r="N222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5318199463100415</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O222">
+        <f t="shared" si="7"/>
+        <v>3.063639892620083</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43595.416666666664</v>
       </c>
@@ -10277,11 +11168,15 @@
         <v>71.8</v>
       </c>
       <c r="N223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.30725444162981</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O223">
+        <f t="shared" si="7"/>
+        <v>2.6145088832596199</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43595.5</v>
       </c>
@@ -10319,11 +11214,15 @@
         <v>73.5</v>
       </c>
       <c r="N224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.26732019671637924</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O224">
+        <f t="shared" si="7"/>
+        <v>0.53464039343275849</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43595.583333333336</v>
       </c>
@@ -10361,11 +11260,15 @@
         <v>72.7</v>
       </c>
       <c r="N225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.32362797206031613</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O225">
+        <f t="shared" si="7"/>
+        <v>0.64725594412063225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43595.666666666664</v>
       </c>
@@ -10403,11 +11306,15 @@
         <v>59.3</v>
       </c>
       <c r="N226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3378919854066857</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O226">
+        <f t="shared" si="7"/>
+        <v>2.6757839708133715</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43595.75</v>
       </c>
@@ -10445,11 +11352,15 @@
         <v>60.7</v>
       </c>
       <c r="N227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.41499131865228267</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O227">
+        <f t="shared" si="7"/>
+        <v>0.82998263730456534</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43595.833333333336</v>
       </c>
@@ -10487,11 +11398,15 @@
         <v>73.2</v>
       </c>
       <c r="N228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.13822305905307003</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O228">
+        <f t="shared" si="7"/>
+        <v>0.27644611810614006</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43595.916666666664</v>
       </c>
@@ -10529,11 +11444,15 @@
         <v>78.5</v>
       </c>
       <c r="N229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5318199463100415</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O229">
+        <f t="shared" si="7"/>
+        <v>3.063639892620083</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43596</v>
       </c>
@@ -10571,11 +11490,15 @@
         <v>77</v>
       </c>
       <c r="N230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4005957004514538</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O230">
+        <f t="shared" si="7"/>
+        <v>2.8011914009029075</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43596.083333333336</v>
       </c>
@@ -10613,11 +11536,15 @@
         <v>75.7</v>
       </c>
       <c r="N231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.44393411805256006</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O231">
+        <f t="shared" si="7"/>
+        <v>0.88786823610512011</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43596.166666666664</v>
       </c>
@@ -10655,11 +11582,15 @@
         <v>71.900000000000006</v>
       </c>
       <c r="N232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.950528105804895</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O232">
+        <f t="shared" si="7"/>
+        <v>1.90105621160979</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43596.25</v>
       </c>
@@ -10697,11 +11628,15 @@
         <v>65.900000000000006</v>
       </c>
       <c r="N233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.6109936092113899</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O233">
+        <f t="shared" si="7"/>
+        <v>7.2219872184227798</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43596.333333333336</v>
       </c>
@@ -10739,11 +11674,15 @@
         <v>54.5</v>
       </c>
       <c r="N234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10.336901197196369</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O234">
+        <f t="shared" si="7"/>
+        <v>20.673802394392737</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43596.416666666664</v>
       </c>
@@ -10781,11 +11720,15 @@
         <v>42.5</v>
       </c>
       <c r="N235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.0043672082538642</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O235">
+        <f t="shared" si="7"/>
+        <v>16.008734416507728</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43596.5</v>
       </c>
@@ -10823,11 +11766,15 @@
         <v>34.200000000000003</v>
       </c>
       <c r="N236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.9680481073411471</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O236">
+        <f t="shared" si="7"/>
+        <v>11.936096214682294</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43596.583333333336</v>
       </c>
@@ -10865,11 +11812,15 @@
         <v>31.2</v>
       </c>
       <c r="N237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.0193225323859592</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O237">
+        <f t="shared" si="7"/>
+        <v>10.038645064771918</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43596.666666666664</v>
       </c>
@@ -10907,11 +11858,15 @@
         <v>30.9</v>
       </c>
       <c r="N238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.2240940984020772</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O238">
+        <f t="shared" si="7"/>
+        <v>4.4481881968041543</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43596.75</v>
       </c>
@@ -10949,11 +11904,15 @@
         <v>37</v>
       </c>
       <c r="N239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.68500069652822293</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O239">
+        <f t="shared" si="7"/>
+        <v>1.3700013930564459</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43596.833333333336</v>
       </c>
@@ -10991,11 +11950,15 @@
         <v>50.1</v>
       </c>
       <c r="N240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.52210975921167824</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O240">
+        <f t="shared" si="7"/>
+        <v>1.0442195184233565</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43596.916666666664</v>
       </c>
@@ -11033,11 +11996,15 @@
         <v>56.5</v>
       </c>
       <c r="N241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.14513296363131747</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O241">
+        <f t="shared" si="7"/>
+        <v>0.29026592726263495</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43597</v>
       </c>
@@ -11075,11 +12042,15 @@
         <v>54.8</v>
       </c>
       <c r="N242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.27801176230025965</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O242">
+        <f t="shared" si="7"/>
+        <v>0.55602352460051929</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43597.083333333336</v>
       </c>
@@ -11117,11 +12088,15 @@
         <v>64.8</v>
       </c>
       <c r="N243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.74600601341764339</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O243">
+        <f t="shared" si="7"/>
+        <v>1.4920120268352868</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43597.166666666664</v>
       </c>
@@ -11159,11 +12134,15 @@
         <v>70.2</v>
       </c>
       <c r="N244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.72528482516664994</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O244">
+        <f t="shared" si="7"/>
+        <v>1.4505696503332999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43597.25</v>
       </c>
@@ -11201,11 +12180,15 @@
         <v>74.8</v>
       </c>
       <c r="N245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.76711815599482347</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O245">
+        <f t="shared" si="7"/>
+        <v>1.5342363119896469</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43597.333333333336</v>
       </c>
@@ -11243,11 +12226,15 @@
         <v>75.5</v>
       </c>
       <c r="N246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.50579502813246535</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O246">
+        <f t="shared" si="7"/>
+        <v>1.0115900562649307</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43597.416666666664</v>
       </c>
@@ -11285,11 +12272,15 @@
         <v>73.7</v>
       </c>
       <c r="N247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4982776484273894</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O247">
+        <f t="shared" si="7"/>
+        <v>2.9965552968547788</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>43597.5</v>
       </c>
@@ -11327,11 +12318,15 @@
         <v>76.099999999999994</v>
       </c>
       <c r="N248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.6003989375838503</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O248">
+        <f t="shared" si="7"/>
+        <v>3.2007978751677006</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>43597.583333333336</v>
       </c>
@@ -11369,11 +12364,15 @@
         <v>76.400000000000006</v>
       </c>
       <c r="N249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0522882798282898</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O249">
+        <f t="shared" si="7"/>
+        <v>2.1045765596565795</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>43597.666666666664</v>
       </c>
@@ -11411,11 +12410,15 @@
         <v>76.7</v>
       </c>
       <c r="N250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.40100404463643996</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O250">
+        <f t="shared" si="7"/>
+        <v>0.80200808927287992</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>43597.75</v>
       </c>
@@ -11453,11 +12456,15 @@
         <v>76.900000000000006</v>
       </c>
       <c r="N251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.37397947907959983</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O251">
+        <f t="shared" si="7"/>
+        <v>0.74795895815919966</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>43597.833333333336</v>
       </c>
@@ -11495,11 +12502,15 @@
         <v>76</v>
       </c>
       <c r="N252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.55578420209243329</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O252">
+        <f t="shared" si="7"/>
+        <v>1.1115684041848666</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>43597.916666666664</v>
       </c>
@@ -11537,11 +12548,15 @@
         <v>75.900000000000006</v>
       </c>
       <c r="N253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.48982375225569658</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O253">
+        <f t="shared" si="7"/>
+        <v>0.97964750451139315</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>43598</v>
       </c>
@@ -11579,11 +12594,15 @@
         <v>75.8</v>
       </c>
       <c r="N254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.44393411805256006</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O254">
+        <f t="shared" si="7"/>
+        <v>0.88786823610512011</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>43598.083333333336</v>
       </c>
@@ -11621,11 +12640,15 @@
         <v>74.3</v>
       </c>
       <c r="N255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.11277570798972246</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O255">
+        <f t="shared" si="7"/>
+        <v>0.22555141597944492</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>43598.166666666664</v>
       </c>
@@ -11663,11 +12686,15 @@
         <v>72.3</v>
       </c>
       <c r="N256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.20004986719798129</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O256">
+        <f t="shared" si="7"/>
+        <v>0.40009973439596258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>43598.25</v>
       </c>
@@ -11705,11 +12732,15 @@
         <v>66.900000000000006</v>
       </c>
       <c r="N257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.20004986719798129</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O257">
+        <f t="shared" si="7"/>
+        <v>0.40009973439596258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>43598.333333333336</v>
       </c>
@@ -11747,11 +12778,15 @@
         <v>60.9</v>
       </c>
       <c r="N258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.68500069652822293</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O258">
+        <f t="shared" si="7"/>
+        <v>1.3700013930564459</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>43598.416666666664</v>
       </c>
@@ -11789,11 +12824,15 @@
         <v>56.6</v>
       </c>
       <c r="N259">
-        <f t="shared" ref="N259:N322" si="4">0.5*0.0765*0.000133*0.35*30429.57*(G259*2.24)^3</f>
+        <f t="shared" ref="N259:N322" si="8">0.5*0.0765*0.000133*0.35*30429.57*(G259*2.24)^3</f>
         <v>0.950528105804895</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O259">
+        <f t="shared" ref="O259:O322" si="9">N259*2</f>
+        <v>1.90105621160979</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>43598.5</v>
       </c>
@@ -11831,11 +12870,15 @@
         <v>56.7</v>
       </c>
       <c r="N260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.97532325736147352</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O260">
+        <f t="shared" si="9"/>
+        <v>1.950646514722947</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>43598.583333333336</v>
       </c>
@@ -11873,11 +12916,15 @@
         <v>73.5</v>
       </c>
       <c r="N261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.6120390612578845E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O261">
+        <f t="shared" si="9"/>
+        <v>0.15224078122515769</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>43598.666666666664</v>
       </c>
@@ -11915,11 +12962,15 @@
         <v>74.8</v>
       </c>
       <c r="N262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3367958517818648E-2</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O262">
+        <f t="shared" si="9"/>
+        <v>2.6735917035637297E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>43598.75</v>
       </c>
@@ -11957,11 +13008,15 @@
         <v>74.099999999999994</v>
       </c>
       <c r="N263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.20887435184091632</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O263">
+        <f t="shared" si="9"/>
+        <v>0.41774870368183264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>43598.833333333336</v>
       </c>
@@ -11999,11 +13054,15 @@
         <v>75.5</v>
       </c>
       <c r="N264">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.25690631831745359</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O264">
+        <f t="shared" si="9"/>
+        <v>0.51381263663490717</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>43598.916666666664</v>
       </c>
@@ -12041,11 +13100,15 @@
         <v>75.5</v>
       </c>
       <c r="N265">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.2467664733247332</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O265">
+        <f t="shared" si="9"/>
+        <v>0.4935329466494664</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>43599</v>
       </c>
@@ -12083,11 +13146,15 @@
         <v>76.900000000000006</v>
       </c>
       <c r="N266">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.10131623990534246</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O266">
+        <f t="shared" si="9"/>
+        <v>0.20263247981068491</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>43599.083333333336</v>
       </c>
@@ -12125,11 +13192,15 @@
         <v>76.599999999999994</v>
       </c>
       <c r="N267">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.6120390612578845E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O267">
+        <f t="shared" si="9"/>
+        <v>0.15224078122515769</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>43599.166666666664</v>
       </c>
@@ -12167,11 +13238,15 @@
         <v>76.8</v>
       </c>
       <c r="N268">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8416831171474439E-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O268">
+        <f t="shared" si="9"/>
+        <v>9.6833662342948879E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>43599.25</v>
       </c>
@@ -12209,11 +13284,15 @@
         <v>71.7</v>
       </c>
       <c r="N269">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.27801176230025965</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O269">
+        <f t="shared" si="9"/>
+        <v>0.55602352460051929</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>43599.333333333336</v>
       </c>
@@ -12251,11 +13330,15 @@
         <v>63</v>
       </c>
       <c r="N270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.41499131865228267</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O270">
+        <f t="shared" si="9"/>
+        <v>0.82998263730456534</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>43599.416666666664</v>
       </c>
@@ -12293,11 +13376,15 @@
         <v>59.5</v>
       </c>
       <c r="N271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.610929398011454E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O271">
+        <f t="shared" si="9"/>
+        <v>5.2218587960229081E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>43599.5</v>
       </c>
@@ -12335,11 +13422,15 @@
         <v>55.6</v>
       </c>
       <c r="N272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0522882798282898E-3</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O272">
+        <f t="shared" si="9"/>
+        <v>2.1045765596565797E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>43599.583333333336</v>
       </c>
@@ -12377,11 +13468,15 @@
         <v>58.9</v>
       </c>
       <c r="N273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.20887435184091632</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O273">
+        <f t="shared" si="9"/>
+        <v>0.41774870368183264</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>43599.666666666664</v>
       </c>
@@ -12419,11 +13514,15 @@
         <v>60.6</v>
       </c>
       <c r="N274">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.20887435184091632</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O274">
+        <f t="shared" si="9"/>
+        <v>0.41774870368183264</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>43599.75</v>
       </c>
@@ -12461,11 +13560,15 @@
         <v>69.2</v>
       </c>
       <c r="N275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.4943129595929839E-3</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O275">
+        <f t="shared" si="9"/>
+        <v>4.9886259191859678E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>43599.833333333336</v>
       </c>
@@ -12503,11 +13606,15 @@
         <v>75.3</v>
       </c>
       <c r="N276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.610929398011454E-2</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O276">
+        <f t="shared" si="9"/>
+        <v>5.2218587960229081E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>43599.916666666664</v>
       </c>
@@ -12545,11 +13652,15 @@
         <v>78.2</v>
       </c>
       <c r="N277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.42930012519807281</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O277">
+        <f t="shared" si="9"/>
+        <v>0.85860025039614563</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>43600</v>
       </c>
@@ -12587,11 +13698,15 @@
         <v>78.2</v>
       </c>
       <c r="N278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.57315122145147446</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O278">
+        <f t="shared" si="9"/>
+        <v>1.1463024429029489</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>43600.083333333336</v>
       </c>
@@ -12629,11 +13744,15 @@
         <v>77.400000000000006</v>
       </c>
       <c r="N279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.17507446255643172</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O279">
+        <f t="shared" si="9"/>
+        <v>0.35014892511286344</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>43600.166666666664</v>
       </c>
@@ -12671,11 +13790,15 @@
         <v>77.099999999999994</v>
       </c>
       <c r="N280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.37397947907959983</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O280">
+        <f t="shared" si="9"/>
+        <v>0.74795895815919966</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>43600.25</v>
       </c>
@@ -12713,11 +13836,15 @@
         <v>70.599999999999994</v>
       </c>
       <c r="N281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.2080323570915197</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O281">
+        <f t="shared" si="9"/>
+        <v>6.4160647141830394</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>43600.333333333336</v>
       </c>
@@ -12755,11 +13882,15 @@
         <v>57.9</v>
       </c>
       <c r="N282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.7935382224209802</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O282">
+        <f t="shared" si="9"/>
+        <v>7.5870764448419603</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>43600.416666666664</v>
       </c>
@@ -12797,11 +13928,15 @@
         <v>45.5</v>
       </c>
       <c r="N283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.8443947611231479</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O283">
+        <f t="shared" si="9"/>
+        <v>13.688789522246296</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>43600.5</v>
       </c>
@@ -12839,11 +13974,15 @@
         <v>36</v>
       </c>
       <c r="N284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.6557502331109113</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O284">
+        <f t="shared" si="9"/>
+        <v>9.3115004662218226</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>43600.583333333336</v>
       </c>
@@ -12881,11 +14020,15 @@
         <v>33.799999999999997</v>
       </c>
       <c r="N285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.7355384774442455</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O285">
+        <f t="shared" si="9"/>
+        <v>5.471076954888491</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>43600.666666666664</v>
       </c>
@@ -12923,11 +14066,15 @@
         <v>34.4</v>
       </c>
       <c r="N286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.83283684747097486</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O286">
+        <f t="shared" si="9"/>
+        <v>1.6656736949419497</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>43600.75</v>
       </c>
@@ -12965,11 +14112,15 @@
         <v>44</v>
       </c>
       <c r="N287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.19147749328875519</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O287">
+        <f t="shared" si="9"/>
+        <v>0.38295498657751037</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>43600.833333333336</v>
       </c>
@@ -13007,11 +14158,15 @@
         <v>62.8</v>
       </c>
       <c r="N288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.1873914831535334E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O288">
+        <f t="shared" si="9"/>
+        <v>0.10374782966307067</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>43600.916666666664</v>
       </c>
@@ -13049,11 +14204,15 @@
         <v>73.8</v>
       </c>
       <c r="N289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.3934686661094398E-2</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O289">
+        <f t="shared" si="9"/>
+        <v>4.7869373322188796E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>43601</v>
       </c>
@@ -13091,11 +14250,15 @@
         <v>76</v>
       </c>
       <c r="N290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.9274034725327815E-2</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O290">
+        <f t="shared" si="9"/>
+        <v>0.11854806945065563</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>43601.083333333336</v>
       </c>
@@ -13133,11 +14296,15 @@
         <v>78.8</v>
       </c>
       <c r="N291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.21795460099630962</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O291">
+        <f t="shared" si="9"/>
+        <v>0.43590920199261923</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>43601.166666666664</v>
       </c>
@@ -13175,11 +14342,15 @@
         <v>79.5</v>
       </c>
       <c r="N292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.15963602941395097</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O292">
+        <f t="shared" si="9"/>
+        <v>0.31927205882790194</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>43601.25</v>
       </c>
@@ -13217,11 +14388,15 @@
         <v>78.2</v>
       </c>
       <c r="N293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.27801176230025965</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O293">
+        <f t="shared" si="9"/>
+        <v>0.55602352460051929</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>43601.333333333336</v>
       </c>
@@ -13259,11 +14434,15 @@
         <v>57.4</v>
       </c>
       <c r="N294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.8874790398488273</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O294">
+        <f t="shared" si="9"/>
+        <v>5.7749580796976545</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>43601.416666666664</v>
       </c>
@@ -13301,11 +14480,15 @@
         <v>42.3</v>
       </c>
       <c r="N295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.1112738672847557</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O295">
+        <f t="shared" si="9"/>
+        <v>8.2225477345695115</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>43601.5</v>
       </c>
@@ -13343,11 +14526,15 @@
         <v>33.1</v>
       </c>
       <c r="N296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.7935382224209802</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O296">
+        <f t="shared" si="9"/>
+        <v>7.5870764448419603</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>43601.583333333336</v>
       </c>
@@ -13385,11 +14572,15 @@
         <v>27.1</v>
       </c>
       <c r="N297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.1385615737310339</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O297">
+        <f t="shared" si="9"/>
+        <v>4.2771231474620679</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>43601.666666666664</v>
       </c>
@@ -13427,11 +14618,15 @@
         <v>27.2</v>
       </c>
       <c r="N298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.30725444162981</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O298">
+        <f t="shared" si="9"/>
+        <v>2.6145088832596199</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>43601.75</v>
       </c>
@@ -13469,11 +14664,15 @@
         <v>37.299999999999997</v>
       </c>
       <c r="N299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.610929398011454E-2</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O299">
+        <f t="shared" si="9"/>
+        <v>5.2218587960229081E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>43601.833333333336</v>
       </c>
@@ -13511,11 +14710,15 @@
         <v>55.7</v>
       </c>
       <c r="N300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8416831171474439E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O300">
+        <f t="shared" si="9"/>
+        <v>9.6833662342948879E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>43601.916666666664</v>
       </c>
@@ -13553,11 +14756,15 @@
         <v>60.7</v>
       </c>
       <c r="N301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.5491764756570007E-2</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O301">
+        <f t="shared" si="9"/>
+        <v>0.11098352951314001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>43602</v>
       </c>
@@ -13595,11 +14802,15 @@
         <v>64.2</v>
       </c>
       <c r="N302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11277570798972246</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O302">
+        <f t="shared" si="9"/>
+        <v>0.22555141597944492</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>43602.083333333336</v>
       </c>
@@ -13637,11 +14848,15 @@
         <v>66.8</v>
       </c>
       <c r="N303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.670994814727331E-3</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O303">
+        <f t="shared" si="9"/>
+        <v>3.3419896294546621E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>43602.166666666664</v>
       </c>
@@ -13679,11 +14894,15 @@
         <v>70.400000000000006</v>
       </c>
       <c r="N304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.734644990901055E-2</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O304">
+        <f t="shared" si="9"/>
+        <v>0.1346928998180211</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>43602.25</v>
       </c>
@@ -13721,11 +14940,15 @@
         <v>67.2</v>
       </c>
       <c r="N305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11277570798972246</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O305">
+        <f t="shared" si="9"/>
+        <v>0.22555141597944492</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>43602.333333333336</v>
       </c>
@@ -13763,11 +14986,15 @@
         <v>51.4</v>
       </c>
       <c r="N306">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.9274034725327815E-2</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O306">
+        <f t="shared" si="9"/>
+        <v>0.11854806945065563</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>43602.416666666664</v>
       </c>
@@ -13805,11 +15032,15 @@
         <v>40.9</v>
       </c>
       <c r="N307">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.15226940249202803</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O307">
+        <f t="shared" si="9"/>
+        <v>0.30453880498405606</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>43602.5</v>
       </c>
@@ -13847,11 +15078,15 @@
         <v>67</v>
       </c>
       <c r="N308">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3378919854066854E-3</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O308">
+        <f t="shared" si="9"/>
+        <v>2.6757839708133708E-3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>43602.583333333336</v>
       </c>
@@ -13889,11 +15124,15 @@
         <v>67</v>
       </c>
       <c r="N309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.19147749328875519</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O309">
+        <f t="shared" si="9"/>
+        <v>0.38295498657751037</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>43602.666666666664</v>
       </c>
@@ -13931,11 +15170,15 @@
         <v>58.1</v>
       </c>
       <c r="N310">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.4183062386263188E-3</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O310">
+        <f t="shared" si="9"/>
+        <v>1.6836612477252638E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>43602.75</v>
       </c>
@@ -13973,11 +15216,15 @@
         <v>58.7</v>
       </c>
       <c r="N311">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.21795460099630962</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O311">
+        <f t="shared" si="9"/>
+        <v>0.43590920199261923</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>43602.833333333336</v>
       </c>
@@ -14015,11 +15262,15 @@
         <v>72.900000000000006</v>
       </c>
       <c r="N312">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.15226940249202803</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O312">
+        <f t="shared" si="9"/>
+        <v>0.30453880498405606</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>43602.916666666664</v>
       </c>
@@ -14057,11 +15308,15 @@
         <v>67.400000000000006</v>
       </c>
       <c r="N313">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.42930012519807281</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O313">
+        <f t="shared" si="9"/>
+        <v>0.85860025039614563</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>43603</v>
       </c>
@@ -14099,11 +15354,15 @@
         <v>56.8</v>
       </c>
       <c r="N314">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.44393411805256006</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O314">
+        <f t="shared" si="9"/>
+        <v>0.88786823610512011</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>43603.083333333336</v>
       </c>
@@ -14141,11 +15400,15 @@
         <v>69.599999999999994</v>
       </c>
       <c r="N315">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.47419227780262252</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O315">
+        <f t="shared" si="9"/>
+        <v>0.94838455560524504</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>43603.166666666664</v>
       </c>
@@ -14183,11 +15446,15 @@
         <v>73.900000000000006</v>
       </c>
       <c r="N316">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.34819719829755691</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O316">
+        <f t="shared" si="9"/>
+        <v>0.69639439659511382</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>43603.25</v>
       </c>
@@ -14225,11 +15492,15 @@
         <v>69.599999999999994</v>
       </c>
       <c r="N317">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.41499131865228267</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O317">
+        <f t="shared" si="9"/>
+        <v>0.82998263730456534</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>43603.333333333336</v>
       </c>
@@ -14267,11 +15538,15 @@
         <v>45.1</v>
       </c>
       <c r="N318">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.6109936092113899</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O318">
+        <f t="shared" si="9"/>
+        <v>7.2219872184227798</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>43603.416666666664</v>
       </c>
@@ -14309,11 +15584,15 @@
         <v>35.299999999999997</v>
       </c>
       <c r="N319">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11.077920411584202</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O319">
+        <f t="shared" si="9"/>
+        <v>22.155840823168404</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>43603.5</v>
       </c>
@@ -14351,11 +15630,15 @@
         <v>29.6</v>
       </c>
       <c r="N320">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.8874790398488273</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O320">
+        <f t="shared" si="9"/>
+        <v>5.7749580796976545</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>43603.583333333336</v>
       </c>
@@ -14393,11 +15676,15 @@
         <v>24.6</v>
       </c>
       <c r="N321">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4005957004514538</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O321">
+        <f t="shared" si="9"/>
+        <v>2.8011914009029075</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>43603.666666666664</v>
       </c>
@@ -14435,11 +15722,15 @@
         <v>24.2</v>
       </c>
       <c r="N322">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2181552199362242</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O322">
+        <f t="shared" si="9"/>
+        <v>2.4363104398724484</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>43603.75</v>
       </c>
@@ -14477,11 +15768,15 @@
         <v>33.5</v>
       </c>
       <c r="N323">
-        <f t="shared" ref="N323:N373" si="5">0.5*0.0765*0.000133*0.35*30429.57*(G323*2.24)^3</f>
+        <f t="shared" ref="N323:N373" si="10">0.5*0.0765*0.000133*0.35*30429.57*(G323*2.24)^3</f>
         <v>0.11277570798972246</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O323">
+        <f t="shared" ref="O323:O373" si="11">N323*2</f>
+        <v>0.22555141597944492</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>43603.833333333336</v>
       </c>
@@ -14519,11 +15814,15 @@
         <v>48.9</v>
       </c>
       <c r="N324">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.5491764756570007E-2</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O324">
+        <f t="shared" si="11"/>
+        <v>0.11098352951314001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>43603.916666666664</v>
       </c>
@@ -14561,11 +15860,15 @@
         <v>57.5</v>
       </c>
       <c r="N325">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.1873914831535334E-2</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O325">
+        <f t="shared" si="11"/>
+        <v>0.10374782966307067</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>43604</v>
       </c>
@@ -14603,11 +15906,15 @@
         <v>67.900000000000006</v>
       </c>
       <c r="N326">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.0660603145831242E-2</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O326">
+        <f t="shared" si="11"/>
+        <v>0.18132120629166248</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>43604.083333333336</v>
       </c>
@@ -14645,11 +15952,15 @@
         <v>61.4</v>
       </c>
       <c r="N327">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.0660603145831242E-2</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O327">
+        <f t="shared" si="11"/>
+        <v>0.18132120629166248</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>43604.166666666664</v>
       </c>
@@ -14687,11 +15998,15 @@
         <v>68.8</v>
       </c>
       <c r="N328">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.5625087066027866E-2</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O328">
+        <f t="shared" si="11"/>
+        <v>0.17125017413205573</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>43604.25</v>
       </c>
@@ -14729,11 +16044,15 @@
         <v>66.2</v>
       </c>
       <c r="N329">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.17507446255643172</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O329">
+        <f t="shared" si="11"/>
+        <v>0.35014892511286344</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>43604.333333333336</v>
       </c>
@@ -14771,11 +16090,15 @@
         <v>55.2</v>
       </c>
       <c r="N330">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.70495093746309279</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O330">
+        <f t="shared" si="11"/>
+        <v>1.4099018749261856</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>43604.416666666664</v>
       </c>
@@ -14813,11 +16136,15 @@
         <v>44.5</v>
       </c>
       <c r="N331">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.9393486919384881</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O331">
+        <f t="shared" si="11"/>
+        <v>5.8786973838769763</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>43604.5</v>
       </c>
@@ -14855,11 +16182,15 @@
         <v>39.4</v>
       </c>
       <c r="N332">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.8557261456989576</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O332">
+        <f t="shared" si="11"/>
+        <v>7.7114522913979151</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>43604.583333333336</v>
       </c>
@@ -14897,11 +16228,15 @@
         <v>41.1</v>
       </c>
       <c r="N333">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.9918358326367986</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O333">
+        <f t="shared" si="11"/>
+        <v>5.9836716652735973</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>43604.666666666664</v>
       </c>
@@ -14939,11 +16274,15 @@
         <v>47.6</v>
       </c>
       <c r="N334">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.6109936092113899</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O334">
+        <f t="shared" si="11"/>
+        <v>7.2219872184227798</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>43604.75</v>
       </c>
@@ -14981,11 +16320,15 @@
         <v>62.3</v>
       </c>
       <c r="N335">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.3566221343110763</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O335">
+        <f t="shared" si="11"/>
+        <v>4.7132442686221525</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>43604.833333333336</v>
       </c>
@@ -15023,11 +16366,15 @@
         <v>70.099999999999994</v>
       </c>
       <c r="N336">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.000545901031733</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O336">
+        <f t="shared" si="11"/>
+        <v>2.001091802063466</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>43604.916666666664</v>
       </c>
@@ -15065,11 +16412,15 @@
         <v>75.599999999999994</v>
       </c>
       <c r="N337">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.37397947907959983</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O337">
+        <f t="shared" si="11"/>
+        <v>0.74795895815919966</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>43605</v>
       </c>
@@ -15107,11 +16458,15 @@
         <v>76.599999999999994</v>
       </c>
       <c r="N338">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.19147749328875519</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O338">
+        <f t="shared" si="11"/>
+        <v>0.38295498657751037</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>43605.083333333336</v>
       </c>
@@ -15149,11 +16504,15 @@
         <v>77.599999999999994</v>
       </c>
       <c r="N339">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.30024257013788214</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O339">
+        <f t="shared" si="11"/>
+        <v>0.60048514027576427</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>43605.166666666664</v>
       </c>
@@ -15191,11 +16550,15 @@
         <v>77.5</v>
       </c>
       <c r="N340">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.10131623990534246</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O340">
+        <f t="shared" si="11"/>
+        <v>0.20263247981068491</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>43605.25</v>
       </c>
@@ -15233,11 +16596,15 @@
         <v>75.7</v>
       </c>
       <c r="N341">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.8973639993640369E-2</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O341">
+        <f t="shared" si="11"/>
+        <v>7.7947279987280738E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>43605.333333333336</v>
       </c>
@@ -15275,11 +16642,15 @@
         <v>70.099999999999994</v>
       </c>
       <c r="N342">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.28898466884784413</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O342">
+        <f t="shared" si="11"/>
+        <v>0.57796933769568826</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>43605.416666666664</v>
       </c>
@@ -15317,11 +16688,15 @@
         <v>52.4</v>
       </c>
       <c r="N343">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.3690045204209844</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O343">
+        <f t="shared" si="11"/>
+        <v>2.7380090408419688</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>43605.5</v>
       </c>
@@ -15359,11 +16734,15 @@
         <v>45.4</v>
       </c>
       <c r="N344">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.7436368079704769</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O344">
+        <f t="shared" si="11"/>
+        <v>3.4872736159409539</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>43605.583333333336</v>
       </c>
@@ -15401,11 +16780,15 @@
         <v>63.6</v>
       </c>
       <c r="N345">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.72528482516664994</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O345">
+        <f t="shared" si="11"/>
+        <v>1.4505696503332999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>43605.666666666664</v>
       </c>
@@ -15443,11 +16826,15 @@
         <v>65.099999999999994</v>
       </c>
       <c r="N346">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.50579502813246535</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O346">
+        <f t="shared" si="11"/>
+        <v>1.0115900562649307</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>43605.75</v>
       </c>
@@ -15485,11 +16872,15 @@
         <v>62.1</v>
       </c>
       <c r="N347">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.66543044858329159</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O347">
+        <f t="shared" si="11"/>
+        <v>1.3308608971665832</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>43605.833333333336</v>
       </c>
@@ -15527,11 +16918,15 @@
         <v>70.900000000000006</v>
       </c>
       <c r="N348">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.10131623990534246</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O348">
+        <f t="shared" si="11"/>
+        <v>0.20263247981068491</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>43605.916666666664</v>
       </c>
@@ -15569,11 +16964,15 @@
         <v>58.7</v>
       </c>
       <c r="N349">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.2636617475143179</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O349">
+        <f t="shared" si="11"/>
+        <v>6.5273234950286358</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>43606</v>
       </c>
@@ -15611,11 +17010,15 @@
         <v>58.1</v>
       </c>
       <c r="N350">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.68500069652822293</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O350">
+        <f t="shared" si="11"/>
+        <v>1.3700013930564459</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>43606.083333333336</v>
       </c>
@@ -15653,11 +17056,15 @@
         <v>60.2</v>
       </c>
       <c r="N351">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.6372652262740317</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O351">
+        <f t="shared" si="11"/>
+        <v>5.2745304525480634</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>43606.166666666664</v>
       </c>
@@ -15695,11 +17102,15 @@
         <v>58.2</v>
       </c>
       <c r="N352">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.3566221343110763</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O352">
+        <f t="shared" si="11"/>
+        <v>4.7132442686221525</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>43606.25</v>
       </c>
@@ -15737,11 +17148,15 @@
         <v>54.8</v>
       </c>
       <c r="N353">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.4013464143454932</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O353">
+        <f t="shared" si="11"/>
+        <v>10.802692828690986</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>43606.333333333336</v>
       </c>
@@ -15779,11 +17194,15 @@
         <v>47.7</v>
       </c>
       <c r="N354">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.6626947797677989</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O354">
+        <f t="shared" si="11"/>
+        <v>13.325389559535598</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>43606.416666666664</v>
       </c>
@@ -15821,11 +17240,15 @@
         <v>37.6</v>
       </c>
       <c r="N355">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>12.390217676851318</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O355">
+        <f t="shared" si="11"/>
+        <v>24.780435353702636</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>43606.5</v>
       </c>
@@ -15863,11 +17286,15 @@
         <v>31.6</v>
       </c>
       <c r="N356">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>11.853533603171392</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O356">
+        <f t="shared" si="11"/>
+        <v>23.707067206342785</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>43606.583333333336</v>
       </c>
@@ -15905,11 +17332,15 @@
         <v>28.7</v>
       </c>
       <c r="N357">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.7379552456285356</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O357">
+        <f t="shared" si="11"/>
+        <v>17.475910491257071</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>43606.666666666664</v>
       </c>
@@ -15947,11 +17378,15 @@
         <v>29.6</v>
       </c>
       <c r="N358">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>12.803191500670803</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O358">
+        <f t="shared" si="11"/>
+        <v>25.606383001341605</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>43606.75</v>
       </c>
@@ -15989,11 +17424,15 @@
         <v>36.1</v>
       </c>
       <c r="N359">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.5730633243030452</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O359">
+        <f t="shared" si="11"/>
+        <v>13.14612664860609</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>43606.833333333336</v>
       </c>
@@ -16031,11 +17470,15 @@
         <v>44.9</v>
       </c>
       <c r="N360">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.64623653984954843</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O360">
+        <f t="shared" si="11"/>
+        <v>1.2924730796990969</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>43606.916666666664</v>
       </c>
@@ -16073,11 +17516,15 @@
         <v>55</v>
       </c>
       <c r="N361">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.50579502813246535</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O361">
+        <f t="shared" si="11"/>
+        <v>1.0115900562649307</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>43607</v>
       </c>
@@ -16115,11 +17562,15 @@
         <v>64.400000000000006</v>
       </c>
       <c r="N362">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.9274034725327815E-2</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O362">
+        <f t="shared" si="11"/>
+        <v>0.11854806945065563</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>43607.083333333336</v>
       </c>
@@ -16157,11 +17608,15 @@
         <v>71.099999999999994</v>
       </c>
       <c r="N363">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.5491764756570007E-2</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O363">
+        <f t="shared" si="11"/>
+        <v>0.11098352951314001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>43607.166666666664</v>
       </c>
@@ -16199,11 +17654,15 @@
         <v>72.8</v>
       </c>
       <c r="N364">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.11881601322561187</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O364">
+        <f t="shared" si="11"/>
+        <v>0.23763202645122375</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>43607.25</v>
       </c>
@@ -16241,11 +17700,15 @@
         <v>61</v>
       </c>
       <c r="N365">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.4982776484273894</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O365">
+        <f t="shared" si="11"/>
+        <v>2.9965552968547788</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>43607.333333333336</v>
       </c>
@@ -16283,11 +17746,15 @@
         <v>41.1</v>
       </c>
       <c r="N366">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.0942365670481076</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O366">
+        <f t="shared" si="11"/>
+        <v>10.188473134096215</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>43607.416666666664</v>
       </c>
@@ -16325,11 +17792,15 @@
         <v>31.5</v>
       </c>
       <c r="N367">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.9680481073411471</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O367">
+        <f t="shared" si="11"/>
+        <v>11.936096214682294</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>43607.5</v>
       </c>
@@ -16367,11 +17838,15 @@
         <v>26.3</v>
       </c>
       <c r="N368">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.6396074997047423</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O368">
+        <f t="shared" si="11"/>
+        <v>11.279214999409485</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>43607.583333333336</v>
       </c>
@@ -16409,11 +17884,15 @@
         <v>24.6</v>
       </c>
       <c r="N369">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.2080323570915197</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O369">
+        <f t="shared" si="11"/>
+        <v>6.4160647141830394</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>43607.666666666664</v>
       </c>
@@ -16451,11 +17930,15 @@
         <v>25.6</v>
       </c>
       <c r="N370">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.4005957004514538</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O370">
+        <f t="shared" si="11"/>
+        <v>2.8011914009029075</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>43607.75</v>
       </c>
@@ -16493,11 +17976,15 @@
         <v>32.299999999999997</v>
       </c>
       <c r="N371">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.20004986719798129</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O371">
+        <f t="shared" si="11"/>
+        <v>0.40009973439596258</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>43607.833333333336</v>
       </c>
@@ -16535,11 +18022,15 @@
         <v>48.6</v>
       </c>
       <c r="N372">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.37397947907959983</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O372">
+        <f t="shared" si="11"/>
+        <v>0.74795895815919966</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>43607.916666666664</v>
       </c>
@@ -16577,8 +18068,12 @@
         <v>57.4</v>
       </c>
       <c r="N373">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.0779567481193554E-2</v>
+      </c>
+      <c r="O373">
+        <f t="shared" si="11"/>
+        <v>0.16155913496238711</v>
       </c>
     </row>
   </sheetData>
